--- a/capiq_data/in_process_data/IQ4212820.xlsx
+++ b/capiq_data/in_process_data/IQ4212820.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E0A688-68A3-4AE7-89E6-687C29B2AF2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36475BEC-7D61-4BC8-898E-70DCF887CB50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"89e93e4e-655a-4bb8-b47d-e202ac0a9d96"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"c9974a29-eb76-4919-b4cf-1ca568debd95"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$64</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$64</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$64</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$64</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$64</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$64</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$64</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$64</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$64</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$64</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$64</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$64</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$64</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$64</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$64</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$64</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$64</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$64</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$64</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$64</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$64</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$64</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$64</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$64</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$64</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$64</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$64</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,66 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +699,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +793,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40544</v>
+        <v>38535</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>28.056000000000001</v>
+        <v>-8.984</v>
       </c>
       <c r="D2">
-        <v>1149.6590000000001</v>
+        <v>1155.3499999999999</v>
       </c>
       <c r="E2">
-        <v>503.24299999999999</v>
+        <v>621.44100000000003</v>
       </c>
       <c r="F2">
-        <v>348.65800000000002</v>
+        <v>360.77600000000001</v>
       </c>
       <c r="G2">
-        <v>2147.6709999999998</v>
+        <v>3145.893</v>
       </c>
       <c r="H2">
-        <v>3790.002</v>
+        <v>4257.3069999999998</v>
       </c>
       <c r="I2">
-        <v>412.36900000000003</v>
+        <v>196.45500000000001</v>
       </c>
       <c r="J2">
-        <v>1990.7349999999999</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>50.677999999999997</v>
+        <v>634.50099999999998</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,37 +832,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>829.35</v>
+        <v>1601.386</v>
       </c>
       <c r="O2">
-        <v>3227.328</v>
+        <v>1646.845</v>
       </c>
       <c r="P2">
-        <v>2131.413</v>
+        <v>634.50099999999998</v>
       </c>
       <c r="Q2">
-        <v>-31.824999999999999</v>
+        <v>61.457999999999998</v>
       </c>
       <c r="R2">
-        <v>40544</v>
+        <v>38535</v>
       </c>
       <c r="S2">
-        <v>55500</v>
+        <v>50000</v>
       </c>
       <c r="T2">
-        <v>562.67399999999998</v>
+        <v>2610.462</v>
       </c>
       <c r="U2">
-        <v>43.670999999999999</v>
+        <v>1080.799</v>
       </c>
       <c r="V2">
-        <v>170.12799999999999</v>
+        <v>115.91</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>48.468000000000004</v>
+        <v>-30.163</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,81 +871,81 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>28.056000000000001</v>
+        <v>-8.984</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40635</v>
+        <v>38626</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>48.109000000000002</v>
+        <v>82.603999999999999</v>
       </c>
       <c r="D3">
-        <v>980.05</v>
+        <v>1137.961</v>
       </c>
       <c r="E3">
-        <v>547.12099999999998</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>340.95800000000003</v>
+        <v>369.51900000000001</v>
       </c>
       <c r="G3">
-        <v>2434.442</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>4076.9290000000001</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>471.43200000000002</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>2095.7350000000001</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>29.431000000000001</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>-285.85899999999998</v>
+        <v>-887.96</v>
       </c>
       <c r="M3">
-        <v>-918</v>
+        <v>-17.788</v>
       </c>
       <c r="N3">
-        <v>943.12</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>3456.806</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>2267.502</v>
+        <v>645.44200000000001</v>
       </c>
       <c r="Q3">
-        <v>21.132999999999999</v>
+        <v>-634.50300000000004</v>
       </c>
       <c r="R3">
-        <v>40635</v>
+        <v>38626</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>620.12300000000005</v>
+        <v>2610.462</v>
       </c>
       <c r="U3">
-        <v>64.804000000000002</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>-101.035</v>
+        <v>175.892</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>134.98500000000001</v>
+        <v>-798.05899999999997</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,42 +954,42 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>48.109000000000002</v>
+        <v>82.603999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40726</v>
+        <v>38717</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4">
-        <v>86.781999999999996</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1167.9860000000001</v>
+        <v>1181.8779999999999</v>
       </c>
       <c r="E4">
-        <v>612.178</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>410.024</v>
+        <v>393.46</v>
       </c>
       <c r="G4">
-        <v>2501.7289999999998</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>4154.7759999999998</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>563.64099999999996</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1998.2349999999999</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>29.010999999999999</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,37 +998,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1073.048</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>3496.9760000000001</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>2240.3009999999999</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>-20.149000000000001</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>40726</v>
+        <v>38717</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>657.8</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>44.655000000000001</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>32.781999999999996</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-21.783999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,81 +1037,81 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>86.781999999999996</v>
+        <v>106.012</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40817</v>
+        <v>38808</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5">
-        <v>90.831999999999994</v>
+        <v>74.591999999999999</v>
       </c>
       <c r="D5">
-        <v>1185.3040000000001</v>
+        <v>1032.8599999999999</v>
       </c>
       <c r="E5">
-        <v>589.43899999999996</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>414.053</v>
+        <v>340.892</v>
       </c>
       <c r="G5">
-        <v>2574.8589999999999</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>4218.58</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>505.88400000000001</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>2005.7349999999999</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>34.110999999999997</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>-205.65899999999999</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>-38.957999999999998</v>
       </c>
       <c r="N5">
-        <v>1037.5830000000001</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>3468.3389999999999</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>2214.846</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>3.3420000000000001</v>
+        <v>-54.737000000000002</v>
       </c>
       <c r="R5">
-        <v>40817</v>
+        <v>38808</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>750.24099999999999</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>47.997</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>41.378999999999998</v>
+        <v>102.297</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-15.709</v>
+        <v>-136.899</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,42 +1120,42 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>90.831999999999994</v>
+        <v>74.591999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>38899</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6">
-        <v>40.965000000000003</v>
+        <v>59.284999999999997</v>
       </c>
       <c r="D6">
-        <v>1100.951</v>
+        <v>1120.133</v>
       </c>
       <c r="E6">
-        <v>470.71300000000002</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>328.173</v>
+        <v>381.46100000000001</v>
       </c>
       <c r="G6">
-        <v>2330.7910000000002</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>4034.6689999999999</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>451.52499999999998</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1807.777</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>63.075000000000003</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,37 +1164,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>933.71900000000005</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>3353.6080000000002</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>2037.7850000000001</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>-12.651999999999999</v>
+        <v>-157.643</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>38899</v>
       </c>
       <c r="S6">
-        <v>53300</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>681.06100000000004</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>35.344999999999999</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>194.83099999999999</v>
+        <v>41.277000000000001</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>-187.011</v>
+        <v>-164.09</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,81 +1203,81 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>40.965000000000003</v>
+        <v>59.284999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>38990</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7">
-        <v>-26.83</v>
+        <v>50.344999999999999</v>
       </c>
       <c r="D7">
-        <v>973.13300000000004</v>
+        <v>1118.9680000000001</v>
       </c>
       <c r="E7">
-        <v>524.745</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>251.125</v>
+        <v>370.024</v>
       </c>
       <c r="G7">
-        <v>2387.5540000000001</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>4076.212</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>401.476</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1935.777</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>41.648000000000003</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>-102.58199999999999</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>-676</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>875.53300000000002</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>3418.4670000000001</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>2140.7950000000001</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>-0.745</v>
+        <v>-89.171999999999997</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>38990</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>657.745</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>34.6</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>-94.114999999999995</v>
+        <v>57.055999999999997</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>102.14400000000001</v>
+        <v>-127.15300000000001</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,42 +1286,42 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>-26.83</v>
+        <v>50.344999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>39081</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>23.794</v>
       </c>
       <c r="D8">
-        <v>1180.6510000000001</v>
+        <v>1131.5050000000001</v>
       </c>
       <c r="E8">
-        <v>585.97900000000004</v>
+        <v>488.62900000000002</v>
       </c>
       <c r="F8">
-        <v>362.94299999999998</v>
+        <v>371.529</v>
       </c>
       <c r="G8">
-        <v>2255.5279999999998</v>
+        <v>2071.1799999999998</v>
       </c>
       <c r="H8">
-        <v>3886.056</v>
+        <v>3435.62</v>
       </c>
       <c r="I8">
-        <v>394.97800000000001</v>
+        <v>221.70699999999999</v>
       </c>
       <c r="J8">
-        <v>1660.6849999999999</v>
+        <v>2486.7429999999999</v>
       </c>
       <c r="K8">
-        <v>46.692999999999998</v>
+        <v>15.098000000000001</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,37 +1330,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>963.44299999999998</v>
+        <v>611.18100000000004</v>
       </c>
       <c r="O8">
-        <v>3228.2979999999998</v>
+        <v>3360.7750000000001</v>
       </c>
       <c r="P8">
-        <v>2025.576</v>
+        <v>2511.2159999999999</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>-53.106999999999999</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>39081</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>49000</v>
       </c>
       <c r="T8">
-        <v>657.75800000000004</v>
+        <v>74.844999999999999</v>
       </c>
       <c r="U8">
-        <v>29.661999999999999</v>
+        <v>155.97300000000001</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>79.022999999999996</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>-126.71899999999999</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,81 +1369,81 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>1.2310000000000001</v>
+        <v>23.794</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41181</v>
+        <v>39172</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9">
-        <v>109.892</v>
+        <v>12.004</v>
       </c>
       <c r="D9">
-        <v>1218.681</v>
+        <v>1039.894</v>
       </c>
       <c r="E9">
-        <v>585.49</v>
+        <v>513.82299999999998</v>
       </c>
       <c r="F9">
-        <v>399.93</v>
+        <v>344.94600000000003</v>
       </c>
       <c r="G9">
-        <v>2318.8539999999998</v>
+        <v>2113.3470000000002</v>
       </c>
       <c r="H9">
-        <v>3939.5590000000002</v>
+        <v>3454.5830000000001</v>
       </c>
       <c r="I9">
-        <v>429.166</v>
+        <v>232.65799999999999</v>
       </c>
       <c r="J9">
-        <v>1500</v>
+        <v>2474.625</v>
       </c>
       <c r="K9">
-        <v>50.777999999999999</v>
+        <v>12.179</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>-0.83399999999999996</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>-11.481</v>
       </c>
       <c r="N9">
-        <v>1078.876</v>
+        <v>646.77599999999995</v>
       </c>
       <c r="O9">
-        <v>3162.4920000000002</v>
+        <v>3363.2629999999999</v>
       </c>
       <c r="P9">
-        <v>1889.9380000000001</v>
+        <v>2505.5540000000001</v>
       </c>
       <c r="Q9">
-        <v>152.607</v>
+        <v>-6.6829999999999998</v>
       </c>
       <c r="R9">
-        <v>41181</v>
+        <v>39172</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>777.06700000000001</v>
+        <v>91.32</v>
       </c>
       <c r="U9">
-        <v>182.26900000000001</v>
+        <v>149.29</v>
       </c>
       <c r="V9">
-        <v>296.66500000000002</v>
+        <v>-0.59099999999999997</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-134.57499999999999</v>
+        <v>-2.7589999999999999</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,42 +1452,42 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>109.892</v>
+        <v>12.004</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41272</v>
+        <v>39263</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10">
-        <v>80.388000000000005</v>
+        <v>25.434000000000001</v>
       </c>
       <c r="D10">
-        <v>1153.2560000000001</v>
+        <v>1121.9069999999999</v>
       </c>
       <c r="E10">
-        <v>506.27800000000002</v>
+        <v>555.875</v>
       </c>
       <c r="F10">
-        <v>398.07100000000003</v>
+        <v>392.77</v>
       </c>
       <c r="G10">
-        <v>2027.5250000000001</v>
+        <v>2159.7759999999998</v>
       </c>
       <c r="H10">
-        <v>3631.7</v>
+        <v>3478.4609999999998</v>
       </c>
       <c r="I10">
-        <v>403.64400000000001</v>
+        <v>254.04300000000001</v>
       </c>
       <c r="J10">
-        <v>1317.5</v>
+        <v>2440.25</v>
       </c>
       <c r="K10">
-        <v>26.216000000000001</v>
+        <v>13.291</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,37 +1496,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>875.66800000000001</v>
+        <v>665.76</v>
       </c>
       <c r="O10">
-        <v>2744.8339999999998</v>
+        <v>3349.0239999999999</v>
       </c>
       <c r="P10">
-        <v>1517.5519999999999</v>
+        <v>2453.5410000000002</v>
       </c>
       <c r="Q10">
-        <v>-139.47300000000001</v>
+        <v>27.103000000000002</v>
       </c>
       <c r="R10">
-        <v>41272</v>
+        <v>39263</v>
       </c>
       <c r="S10">
-        <v>51500</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>886.86599999999999</v>
+        <v>129.43700000000001</v>
       </c>
       <c r="U10">
-        <v>42.795999999999999</v>
+        <v>176.393</v>
       </c>
       <c r="V10">
-        <v>244.202</v>
+        <v>102.149</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-371.58800000000002</v>
+        <v>-67.944999999999993</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,81 +1535,81 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>80.388000000000005</v>
+        <v>25.434000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41363</v>
+        <v>39354</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11">
-        <v>51.378999999999998</v>
+        <v>38.896000000000001</v>
       </c>
       <c r="D11">
-        <v>945.46100000000001</v>
+        <v>1153.606</v>
       </c>
       <c r="E11">
-        <v>550.65</v>
+        <v>577.75900000000001</v>
       </c>
       <c r="F11">
-        <v>323.43700000000001</v>
+        <v>372.82100000000003</v>
       </c>
       <c r="G11">
-        <v>2197.558</v>
+        <v>2147.0169999999998</v>
       </c>
       <c r="H11">
-        <v>3807.125</v>
+        <v>3512.991</v>
       </c>
       <c r="I11">
-        <v>419.30200000000002</v>
+        <v>291</v>
       </c>
       <c r="J11">
-        <v>1435</v>
+        <v>2365.25</v>
       </c>
       <c r="K11">
-        <v>29.827000000000002</v>
+        <v>45.143000000000001</v>
       </c>
       <c r="L11">
-        <v>-96.042000000000002</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>-835.5</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>875.56200000000001</v>
+        <v>769.37900000000002</v>
       </c>
       <c r="O11">
-        <v>2858.5709999999999</v>
+        <v>3293.239</v>
       </c>
       <c r="P11">
-        <v>1624.5740000000001</v>
+        <v>2410.393</v>
       </c>
       <c r="Q11">
-        <v>25.748999999999999</v>
+        <v>-1.6E-2</v>
       </c>
       <c r="R11">
-        <v>41363</v>
+        <v>39354</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>948.55399999999997</v>
+        <v>219.75200000000001</v>
       </c>
       <c r="U11">
-        <v>68.545000000000002</v>
+        <v>176.37700000000001</v>
       </c>
       <c r="V11">
-        <v>-77.908000000000001</v>
+        <v>134.285</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>110.64</v>
+        <v>-97.034999999999997</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,42 +1618,42 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>51.378999999999998</v>
+        <v>38.896000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41454</v>
+        <v>39445</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12">
-        <v>121.586</v>
+        <v>49.792999999999999</v>
       </c>
       <c r="D12">
-        <v>1199.2049999999999</v>
+        <v>1159.1300000000001</v>
       </c>
       <c r="E12">
-        <v>616.62199999999996</v>
+        <v>575.06899999999996</v>
       </c>
       <c r="F12">
-        <v>431.995</v>
+        <v>367.28500000000003</v>
       </c>
       <c r="G12">
-        <v>2259.9639999999999</v>
+        <v>2094.3339999999998</v>
       </c>
       <c r="H12">
-        <v>3849.53</v>
+        <v>3439.4830000000002</v>
       </c>
       <c r="I12">
-        <v>442.27</v>
+        <v>289.166</v>
       </c>
       <c r="J12">
-        <v>1374.5</v>
+        <v>2331.84</v>
       </c>
       <c r="K12">
-        <v>30.305</v>
+        <v>19.577000000000002</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,37 +1662,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>894.00699999999995</v>
+        <v>688.98199999999997</v>
       </c>
       <c r="O12">
-        <v>2805.3919999999998</v>
+        <v>3144.83</v>
       </c>
       <c r="P12">
-        <v>1575.2840000000001</v>
+        <v>2351.4169999999999</v>
       </c>
       <c r="Q12">
-        <v>13.76</v>
+        <v>-2.141</v>
       </c>
       <c r="R12">
-        <v>41454</v>
+        <v>39445</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>47600</v>
       </c>
       <c r="T12">
-        <v>1044.1379999999999</v>
+        <v>294.65300000000002</v>
       </c>
       <c r="U12">
-        <v>82.305000000000007</v>
+        <v>174.23599999999999</v>
       </c>
       <c r="V12">
-        <v>96.233999999999995</v>
+        <v>123.197</v>
       </c>
       <c r="W12">
-        <v>-19.797000000000001</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>-72.084999999999994</v>
+        <v>-75.64</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,81 +1701,81 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>121.586</v>
+        <v>49.792999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41545</v>
+        <v>39536</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13">
-        <v>125.26300000000001</v>
+        <v>36.024000000000001</v>
       </c>
       <c r="D13">
-        <v>1197.346</v>
+        <v>987.84699999999998</v>
       </c>
       <c r="E13">
-        <v>585.71</v>
+        <v>541.9</v>
       </c>
       <c r="F13">
-        <v>417.82799999999997</v>
+        <v>347.52199999999999</v>
       </c>
       <c r="G13">
-        <v>2257.0529999999999</v>
+        <v>2125.2510000000002</v>
       </c>
       <c r="H13">
-        <v>3835.0169999999998</v>
+        <v>3470.1390000000001</v>
       </c>
       <c r="I13">
-        <v>440.35700000000003</v>
+        <v>309.86700000000002</v>
       </c>
       <c r="J13">
-        <v>1250</v>
+        <v>2315.25</v>
       </c>
       <c r="K13">
-        <v>5.2089999999999996</v>
+        <v>14.561999999999999</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>-42.515000000000001</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>913.68499999999995</v>
+        <v>683.86500000000001</v>
       </c>
       <c r="O13">
-        <v>2682.913</v>
+        <v>3158.857</v>
       </c>
       <c r="P13">
-        <v>1421.8230000000001</v>
+        <v>2329.8119999999999</v>
       </c>
       <c r="Q13">
-        <v>50.015000000000001</v>
+        <v>-53.442999999999998</v>
       </c>
       <c r="R13">
-        <v>41545</v>
+        <v>39536</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>1152.104</v>
+        <v>311.28199999999998</v>
       </c>
       <c r="U13">
-        <v>132.32</v>
+        <v>120.79300000000001</v>
       </c>
       <c r="V13">
-        <v>238.65899999999999</v>
+        <v>-19.481000000000002</v>
       </c>
       <c r="W13">
-        <v>-19.818000000000001</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>-179.97399999999999</v>
+        <v>-13.74</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,42 +1784,42 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>125.26300000000001</v>
+        <v>36.024000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41636</v>
+        <v>39627</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14">
-        <v>32.265999999999998</v>
+        <v>57.344000000000001</v>
       </c>
       <c r="D14">
-        <v>1285.79</v>
+        <v>1072.171</v>
       </c>
       <c r="E14">
-        <v>578.55799999999999</v>
+        <v>547.61699999999996</v>
       </c>
       <c r="F14">
-        <v>439.375</v>
+        <v>385.589</v>
       </c>
       <c r="G14">
-        <v>2243.6660000000002</v>
+        <v>2222.7399999999998</v>
       </c>
       <c r="H14">
-        <v>4090.0479999999998</v>
+        <v>3577.5709999999999</v>
       </c>
       <c r="I14">
-        <v>466.27</v>
+        <v>320.65100000000001</v>
       </c>
       <c r="J14">
-        <v>1467</v>
+        <v>2315.25</v>
       </c>
       <c r="K14">
-        <v>36.192</v>
+        <v>58.636000000000003</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,37 +1828,37 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>999.27800000000002</v>
+        <v>729.154</v>
       </c>
       <c r="O14">
-        <v>2859.4250000000002</v>
+        <v>3186.8240000000001</v>
       </c>
       <c r="P14">
-        <v>1684.982</v>
+        <v>2373.886</v>
       </c>
       <c r="Q14">
-        <v>-16.457000000000001</v>
+        <v>-23.875</v>
       </c>
       <c r="R14">
-        <v>41636</v>
+        <v>39627</v>
       </c>
       <c r="S14">
-        <v>49700</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>1230.623</v>
+        <v>390.74700000000001</v>
       </c>
       <c r="U14">
-        <v>115.863</v>
+        <v>96.918000000000006</v>
       </c>
       <c r="V14">
-        <v>334.29599999999999</v>
+        <v>-30.481000000000002</v>
       </c>
       <c r="W14">
-        <v>-19.827000000000002</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>235.17599999999999</v>
+        <v>59.273000000000003</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,81 +1867,81 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>32.265999999999998</v>
+        <v>57.344000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41727</v>
+        <v>39718</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15">
-        <v>41.56</v>
+        <v>15.92</v>
       </c>
       <c r="D15">
-        <v>1059.3699999999999</v>
+        <v>1153.635</v>
       </c>
       <c r="E15">
-        <v>611.6</v>
+        <v>562.93700000000001</v>
       </c>
       <c r="F15">
-        <v>371.60399999999998</v>
+        <v>359.822</v>
       </c>
       <c r="G15">
-        <v>2440.951</v>
+        <v>2252.3809999999999</v>
       </c>
       <c r="H15">
-        <v>4273.9189999999999</v>
+        <v>3627.6379999999999</v>
       </c>
       <c r="I15">
-        <v>492.35700000000003</v>
+        <v>322.82400000000001</v>
       </c>
       <c r="J15">
-        <v>1620</v>
+        <v>2315.25</v>
       </c>
       <c r="K15">
-        <v>38.488</v>
+        <v>71.528000000000006</v>
       </c>
       <c r="L15">
-        <v>-96.099000000000004</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>-965</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1029.3630000000001</v>
+        <v>771.58399999999995</v>
       </c>
       <c r="O15">
-        <v>3027.442</v>
+        <v>3246.7040000000002</v>
       </c>
       <c r="P15">
-        <v>1823.367</v>
+        <v>2386.7779999999998</v>
       </c>
       <c r="Q15">
-        <v>35.273000000000003</v>
+        <v>-10.706</v>
       </c>
       <c r="R15">
-        <v>41727</v>
+        <v>39718</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1246.4770000000001</v>
+        <v>380.93400000000003</v>
       </c>
       <c r="U15">
-        <v>151.136</v>
+        <v>86.212000000000003</v>
       </c>
       <c r="V15">
-        <v>-62.235999999999997</v>
+        <v>31.341000000000001</v>
       </c>
       <c r="W15">
-        <v>-29.85</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>110.191</v>
+        <v>-4.7569999999999997</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,42 +1950,42 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>41.56</v>
+        <v>15.92</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41818</v>
+        <v>39816</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16">
-        <v>154.578</v>
+        <v>17.881</v>
       </c>
       <c r="D16">
-        <v>1342.0519999999999</v>
+        <v>1035.117</v>
       </c>
       <c r="E16">
-        <v>779.52</v>
+        <v>404.93</v>
       </c>
       <c r="F16">
-        <v>508.18900000000002</v>
+        <v>318.97500000000002</v>
       </c>
       <c r="G16">
-        <v>2587.7359999999999</v>
+        <v>2110.3249999999998</v>
       </c>
       <c r="H16">
-        <v>4415.018</v>
+        <v>3534.049</v>
       </c>
       <c r="I16">
-        <v>563.75800000000004</v>
+        <v>347.15300000000002</v>
       </c>
       <c r="J16">
-        <v>1523</v>
+        <v>2207.8339999999998</v>
       </c>
       <c r="K16">
-        <v>40.802</v>
+        <v>61.734000000000002</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,37 +1994,37 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1155.338</v>
+        <v>748.28399999999999</v>
       </c>
       <c r="O16">
-        <v>3036.59</v>
+        <v>3348.8939999999998</v>
       </c>
       <c r="P16">
-        <v>1788.8019999999999</v>
+        <v>2321.2919999999999</v>
       </c>
       <c r="Q16">
-        <v>-7.5190000000000001</v>
+        <v>-18.87</v>
       </c>
       <c r="R16">
-        <v>41818</v>
+        <v>39816</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>45200</v>
       </c>
       <c r="T16">
-        <v>1378.4280000000001</v>
+        <v>185.155</v>
       </c>
       <c r="U16">
-        <v>143.61699999999999</v>
+        <v>67.341999999999999</v>
       </c>
       <c r="V16">
-        <v>67.174000000000007</v>
+        <v>196.018</v>
       </c>
       <c r="W16">
-        <v>-29.881</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>-67.572999999999993</v>
+        <v>-145.51400000000001</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,81 +2033,81 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>154.578</v>
+        <v>17.881</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41909</v>
+        <v>39907</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17">
-        <v>118.944</v>
+        <v>-19.327999999999999</v>
       </c>
       <c r="D17">
-        <v>1400.7280000000001</v>
+        <v>857.84100000000001</v>
       </c>
       <c r="E17">
-        <v>874.92200000000003</v>
+        <v>424.75900000000001</v>
       </c>
       <c r="F17">
-        <v>520.28</v>
+        <v>263.46199999999999</v>
       </c>
       <c r="G17">
-        <v>3154.42</v>
+        <v>2096.9609999999998</v>
       </c>
       <c r="H17">
-        <v>5543.4939999999997</v>
+        <v>3564.944</v>
       </c>
       <c r="I17">
-        <v>673.93700000000001</v>
+        <v>289.54500000000002</v>
       </c>
       <c r="J17">
-        <v>1908.7329999999999</v>
+        <v>2110.0219999999999</v>
       </c>
       <c r="K17">
-        <v>137.94800000000001</v>
+        <v>70.528000000000006</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>-540.42700000000002</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>-560.20500000000004</v>
       </c>
       <c r="N17">
-        <v>1675.9549999999999</v>
+        <v>875.04899999999998</v>
       </c>
       <c r="O17">
-        <v>4078.8240000000001</v>
+        <v>3379.837</v>
       </c>
       <c r="P17">
-        <v>2291.502</v>
+        <v>2409.0259999999998</v>
       </c>
       <c r="Q17">
-        <v>72.215000000000003</v>
+        <v>-35.673000000000002</v>
       </c>
       <c r="R17">
-        <v>41909</v>
+        <v>39907</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1464.67</v>
+        <v>185.107</v>
       </c>
       <c r="U17">
-        <v>215.83199999999999</v>
+        <v>31.669</v>
       </c>
       <c r="V17">
-        <v>210.38300000000001</v>
+        <v>-57.975999999999999</v>
       </c>
       <c r="W17">
-        <v>-29.907</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>250.083</v>
+        <v>78.27</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,42 +2116,42 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>118.944</v>
+        <v>-19.327999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42007</v>
+        <v>39998</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18">
-        <v>89.436999999999998</v>
+        <v>30.555</v>
       </c>
       <c r="D18">
-        <v>1522.596</v>
+        <v>986.02200000000005</v>
       </c>
       <c r="E18">
-        <v>672.048</v>
+        <v>505.30200000000002</v>
       </c>
       <c r="F18">
-        <v>577.45899999999995</v>
+        <v>327.32600000000002</v>
       </c>
       <c r="G18">
-        <v>2550.1669999999999</v>
+        <v>2112.5169999999998</v>
       </c>
       <c r="H18">
-        <v>5208.1930000000002</v>
+        <v>3576.0909999999999</v>
       </c>
       <c r="I18">
-        <v>621.22</v>
+        <v>288.83999999999997</v>
       </c>
       <c r="J18">
-        <v>1613.9970000000001</v>
+        <v>2055.8969999999999</v>
       </c>
       <c r="K18">
-        <v>144.43799999999999</v>
+        <v>64.013000000000005</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,120 +2160,120 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1482.414</v>
+        <v>874.71400000000006</v>
       </c>
       <c r="O18">
-        <v>3821.4209999999998</v>
+        <v>3336.9459999999999</v>
       </c>
       <c r="P18">
-        <v>1983.752</v>
+        <v>2348.7440000000001</v>
       </c>
       <c r="Q18">
-        <v>24.023</v>
+        <v>15.891999999999999</v>
       </c>
       <c r="R18">
-        <v>42007</v>
+        <v>39998</v>
       </c>
       <c r="S18">
-        <v>59500</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>1386.7719999999999</v>
+        <v>239.14500000000001</v>
       </c>
       <c r="U18">
-        <v>239.85499999999999</v>
+        <v>47.561</v>
       </c>
       <c r="V18">
-        <v>292.76900000000001</v>
+        <v>84.492999999999995</v>
       </c>
       <c r="W18">
-        <v>-29.969000000000001</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>-316.46600000000001</v>
+        <v>-55.442</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>64.38</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>89.436999999999998</v>
+        <v>30.555</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42098</v>
+        <v>40089</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C19">
-        <v>52.636000000000003</v>
+        <v>41.137999999999998</v>
       </c>
       <c r="D19">
-        <v>1208.921</v>
+        <v>1058.673</v>
       </c>
       <c r="E19">
-        <v>713.11300000000006</v>
+        <v>538.54</v>
       </c>
       <c r="F19">
-        <v>460.29899999999998</v>
+        <v>357.06700000000001</v>
       </c>
       <c r="G19">
-        <v>3020.6880000000001</v>
+        <v>2038.586</v>
       </c>
       <c r="H19">
-        <v>5407.9260000000004</v>
+        <v>3491.913</v>
       </c>
       <c r="I19">
-        <v>613.26099999999997</v>
+        <v>292.84300000000002</v>
       </c>
       <c r="J19">
-        <v>1973.876</v>
+        <v>1858.376</v>
       </c>
       <c r="K19">
-        <v>116.742</v>
+        <v>62.158000000000001</v>
       </c>
       <c r="L19">
-        <v>-151.53</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>-923.88699999999994</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1400.7460000000001</v>
+        <v>923.62400000000002</v>
       </c>
       <c r="O19">
-        <v>4004.6970000000001</v>
+        <v>3198.7289999999998</v>
       </c>
       <c r="P19">
-        <v>2301.6909999999998</v>
+        <v>2170.1480000000001</v>
       </c>
       <c r="Q19">
-        <v>37.212000000000003</v>
+        <v>-8.9440000000000008</v>
       </c>
       <c r="R19">
-        <v>42098</v>
+        <v>40089</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>1403.229</v>
+        <v>293.18400000000003</v>
       </c>
       <c r="U19">
-        <v>277.06700000000001</v>
+        <v>38.616999999999997</v>
       </c>
       <c r="V19">
-        <v>-259.34500000000003</v>
+        <v>184.29</v>
       </c>
       <c r="W19">
-        <v>-40.082999999999998</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>333.75400000000002</v>
+        <v>-178.76300000000001</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,42 +2282,42 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>52.636000000000003</v>
+        <v>41.137999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42189</v>
+        <v>40180</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C20">
-        <v>94.902000000000001</v>
+        <v>-1.0820000000000001</v>
       </c>
       <c r="D20">
-        <v>1522.0329999999999</v>
+        <v>988.73900000000003</v>
       </c>
       <c r="E20">
-        <v>835.29899999999998</v>
+        <v>450.541</v>
       </c>
       <c r="F20">
-        <v>594.37599999999998</v>
+        <v>330.19499999999999</v>
       </c>
       <c r="G20">
-        <v>3296.3220000000001</v>
+        <v>1822.557</v>
       </c>
       <c r="H20">
-        <v>5872.3810000000003</v>
+        <v>3326.5639999999999</v>
       </c>
       <c r="I20">
-        <v>661.36900000000003</v>
+        <v>351.971</v>
       </c>
       <c r="J20">
-        <v>2217.7600000000002</v>
+        <v>1727.547</v>
       </c>
       <c r="K20">
-        <v>112.818</v>
+        <v>66.680999999999997</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,37 +2326,37 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1513.69</v>
+        <v>878.97500000000002</v>
       </c>
       <c r="O20">
-        <v>4420.6090000000004</v>
+        <v>2991.8449999999998</v>
       </c>
       <c r="P20">
-        <v>2597.143</v>
+        <v>1958.9159999999999</v>
       </c>
       <c r="Q20">
-        <v>38.286999999999999</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="R20">
-        <v>42189</v>
+        <v>40180</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>47400</v>
       </c>
       <c r="T20">
-        <v>1451.7719999999999</v>
+        <v>334.71899999999999</v>
       </c>
       <c r="U20">
-        <v>315.35399999999998</v>
+        <v>38.942999999999998</v>
       </c>
       <c r="V20">
-        <v>26.277000000000001</v>
+        <v>203.697</v>
       </c>
       <c r="W20">
-        <v>-41.387</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>222.947</v>
+        <v>-198.239</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,81 +2365,81 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>94.902000000000001</v>
+        <v>-1.0820000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42280</v>
+        <v>40271</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21">
-        <v>162.154</v>
+        <v>36.512999999999998</v>
       </c>
       <c r="D21">
-        <v>1591.038</v>
+        <v>927.84</v>
       </c>
       <c r="E21">
-        <v>850.33399999999995</v>
+        <v>440.3</v>
       </c>
       <c r="F21">
-        <v>588.47</v>
+        <v>327.43</v>
       </c>
       <c r="G21">
-        <v>3265.4540000000002</v>
+        <v>1945.1659999999999</v>
       </c>
       <c r="H21">
-        <v>5819.4</v>
+        <v>3440.0630000000001</v>
       </c>
       <c r="I21">
-        <v>637.78800000000001</v>
+        <v>373.26299999999998</v>
       </c>
       <c r="J21">
-        <v>2361.607</v>
+        <v>1781.672</v>
       </c>
       <c r="K21">
-        <v>120.083</v>
+        <v>62.576999999999998</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>-301.19499999999999</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>-570.68200000000002</v>
       </c>
       <c r="N21">
-        <v>1572.1369999999999</v>
+        <v>872.21799999999996</v>
       </c>
       <c r="O21">
-        <v>4569.1009999999997</v>
+        <v>3063.9589999999998</v>
       </c>
       <c r="P21">
-        <v>2779.3609999999999</v>
+        <v>1989.63</v>
       </c>
       <c r="Q21">
-        <v>-30.759</v>
+        <v>3.677</v>
       </c>
       <c r="R21">
-        <v>42280</v>
+        <v>40271</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>1250.299</v>
+        <v>376.10399999999998</v>
       </c>
       <c r="U21">
-        <v>284.59500000000003</v>
+        <v>42.62</v>
       </c>
       <c r="V21">
-        <v>145.91399999999999</v>
+        <v>-38.962000000000003</v>
       </c>
       <c r="W21">
-        <v>-40.243000000000002</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>-170.297</v>
+        <v>30.716999999999999</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,42 +2448,42 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>162.154</v>
+        <v>36.512999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42371</v>
+        <v>40362</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C22">
-        <v>119.163</v>
+        <v>85.412000000000006</v>
       </c>
       <c r="D22">
-        <v>1409.557</v>
+        <v>1075.8520000000001</v>
       </c>
       <c r="E22">
-        <v>680.41700000000003</v>
+        <v>512.80100000000004</v>
       </c>
       <c r="F22">
-        <v>556.04600000000005</v>
+        <v>374.80599999999998</v>
       </c>
       <c r="G22">
-        <v>2917.8670000000002</v>
+        <v>2117.1640000000002</v>
       </c>
       <c r="H22">
-        <v>5597.59</v>
+        <v>3613.721</v>
       </c>
       <c r="I22">
-        <v>672.97199999999998</v>
+        <v>460.339</v>
       </c>
       <c r="J22">
-        <v>2232.712</v>
+        <v>1868.672</v>
       </c>
       <c r="K22">
-        <v>117.785</v>
+        <v>32.429000000000002</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,37 +2492,37 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1503.9090000000001</v>
+        <v>892.54899999999998</v>
       </c>
       <c r="O22">
-        <v>4321.6989999999996</v>
+        <v>3151.4380000000001</v>
       </c>
       <c r="P22">
-        <v>2603.3159999999998</v>
+        <v>2033.616</v>
       </c>
       <c r="Q22">
-        <v>34.573999999999998</v>
+        <v>-5.8230000000000004</v>
       </c>
       <c r="R22">
-        <v>42371</v>
+        <v>40362</v>
       </c>
       <c r="S22">
-        <v>65300</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>1275.8910000000001</v>
+        <v>462.28300000000002</v>
       </c>
       <c r="U22">
-        <v>319.16899999999998</v>
+        <v>36.796999999999997</v>
       </c>
       <c r="V22">
-        <v>314.161</v>
+        <v>-25.31</v>
       </c>
       <c r="W22">
-        <v>-39.603000000000002</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>-253.422</v>
+        <v>45.53</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2471,81 +2531,81 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>119.163</v>
+        <v>85.412000000000006</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42462</v>
+        <v>40453</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C23">
-        <v>80.269000000000005</v>
+        <v>61.311999999999998</v>
       </c>
       <c r="D23">
-        <v>1219.1400000000001</v>
+        <v>1173.3620000000001</v>
       </c>
       <c r="E23">
-        <v>722.10299999999995</v>
+        <v>531.36</v>
       </c>
       <c r="F23">
-        <v>462.125</v>
+        <v>363.875</v>
       </c>
       <c r="G23">
-        <v>3117.68</v>
+        <v>2255.0120000000002</v>
       </c>
       <c r="H23">
-        <v>5822.0609999999997</v>
+        <v>3755.2930000000001</v>
       </c>
       <c r="I23">
-        <v>530.43600000000004</v>
+        <v>461.87900000000002</v>
       </c>
       <c r="J23">
-        <v>2963.424</v>
+        <v>1871.672</v>
       </c>
       <c r="K23">
-        <v>115.23699999999999</v>
+        <v>42.651000000000003</v>
       </c>
       <c r="L23">
-        <v>-415.44</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>-744.35400000000004</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1368.5119999999999</v>
+        <v>957.66</v>
       </c>
       <c r="O23">
-        <v>4870.0200000000004</v>
+        <v>3216.7660000000001</v>
       </c>
       <c r="P23">
-        <v>3340.9859999999999</v>
+        <v>2064.3229999999999</v>
       </c>
       <c r="Q23">
-        <v>13.253</v>
+        <v>38.698999999999998</v>
       </c>
       <c r="R23">
-        <v>42462</v>
+        <v>40453</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>952.04100000000005</v>
+        <v>538.52700000000004</v>
       </c>
       <c r="U23">
-        <v>332.42200000000003</v>
+        <v>75.495999999999995</v>
       </c>
       <c r="V23">
-        <v>-284.80599999999998</v>
+        <v>27.198</v>
       </c>
       <c r="W23">
-        <v>-42.683</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>314.68400000000003</v>
+        <v>30.97</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2554,42 +2614,42 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>80.269000000000005</v>
+        <v>61.311999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42553</v>
+        <v>40544</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C24">
-        <v>128.143</v>
+        <v>28.056000000000001</v>
       </c>
       <c r="D24">
-        <v>1472.731</v>
+        <v>1149.6590000000001</v>
       </c>
       <c r="E24">
-        <v>857.56200000000001</v>
+        <v>503.24299999999999</v>
       </c>
       <c r="F24">
-        <v>566.59100000000001</v>
+        <v>348.65800000000002</v>
       </c>
       <c r="G24">
-        <v>3633.4920000000002</v>
+        <v>2147.6709999999998</v>
       </c>
       <c r="H24">
-        <v>6614.65</v>
+        <v>3790.002</v>
       </c>
       <c r="I24">
-        <v>664.18600000000004</v>
+        <v>412.36900000000003</v>
       </c>
       <c r="J24">
-        <v>3466.5250000000001</v>
+        <v>1990.7349999999999</v>
       </c>
       <c r="K24">
-        <v>85.528000000000006</v>
+        <v>50.677999999999997</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,37 +2658,37 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1550.914</v>
+        <v>829.35</v>
       </c>
       <c r="O24">
-        <v>5564.9579999999996</v>
+        <v>3227.328</v>
       </c>
       <c r="P24">
-        <v>3827.8020000000001</v>
+        <v>2131.413</v>
       </c>
       <c r="Q24">
-        <v>328.57499999999999</v>
+        <v>-31.824999999999999</v>
       </c>
       <c r="R24">
-        <v>42553</v>
+        <v>40544</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>55500</v>
       </c>
       <c r="T24">
-        <v>1049.692</v>
+        <v>562.67399999999998</v>
       </c>
       <c r="U24">
-        <v>660.99699999999996</v>
+        <v>43.670999999999999</v>
       </c>
       <c r="V24">
-        <v>155.72800000000001</v>
+        <v>170.12799999999999</v>
       </c>
       <c r="W24">
-        <v>-41.551000000000002</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>375.99700000000001</v>
+        <v>48.468000000000004</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,81 +2697,81 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>128.143</v>
+        <v>28.056000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42644</v>
+        <v>40635</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C25">
-        <v>173.858</v>
+        <v>48.109000000000002</v>
       </c>
       <c r="D25">
-        <v>1761.019</v>
+        <v>980.05</v>
       </c>
       <c r="E25">
-        <v>961.65899999999999</v>
+        <v>547.12099999999998</v>
       </c>
       <c r="F25">
-        <v>662.92899999999997</v>
+        <v>340.95800000000003</v>
       </c>
       <c r="G25">
-        <v>3562.127</v>
+        <v>2434.442</v>
       </c>
       <c r="H25">
-        <v>7304.3339999999998</v>
+        <v>4076.9290000000001</v>
       </c>
       <c r="I25">
-        <v>757.72</v>
+        <v>471.43200000000002</v>
       </c>
       <c r="J25">
-        <v>3684.4079999999999</v>
+        <v>2095.7350000000001</v>
       </c>
       <c r="K25">
-        <v>60.646000000000001</v>
+        <v>29.431000000000001</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>-285.85899999999998</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>-918</v>
       </c>
       <c r="N25">
-        <v>1872.88</v>
+        <v>943.12</v>
       </c>
       <c r="O25">
-        <v>6117.8090000000002</v>
+        <v>3456.806</v>
       </c>
       <c r="P25">
-        <v>4128.49</v>
+        <v>2267.502</v>
       </c>
       <c r="Q25">
-        <v>-210.78399999999999</v>
+        <v>21.132999999999999</v>
       </c>
       <c r="R25">
-        <v>42644</v>
+        <v>40635</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>1186.5250000000001</v>
+        <v>620.12300000000005</v>
       </c>
       <c r="U25">
-        <v>450.21300000000002</v>
+        <v>64.804000000000002</v>
       </c>
       <c r="V25">
-        <v>337.36900000000003</v>
+        <v>-101.035</v>
       </c>
       <c r="W25">
-        <v>-41.564</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>189.244</v>
+        <v>134.98500000000001</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,42 +2780,42 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>173.858</v>
+        <v>48.109000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>40726</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C26">
-        <v>157.11199999999999</v>
+        <v>86.781999999999996</v>
       </c>
       <c r="D26">
-        <v>1575.309</v>
+        <v>1167.9860000000001</v>
       </c>
       <c r="E26">
-        <v>836.92399999999998</v>
+        <v>612.178</v>
       </c>
       <c r="F26">
-        <v>623.78200000000004</v>
+        <v>410.024</v>
       </c>
       <c r="G26">
-        <v>3321.1660000000002</v>
+        <v>2501.7289999999998</v>
       </c>
       <c r="H26">
-        <v>6930.48</v>
+        <v>4154.7759999999998</v>
       </c>
       <c r="I26">
-        <v>761.64700000000005</v>
+        <v>563.64099999999996</v>
       </c>
       <c r="J26">
-        <v>3507.6849999999999</v>
+        <v>1998.2349999999999</v>
       </c>
       <c r="K26">
-        <v>56.396000000000001</v>
+        <v>29.010999999999999</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,37 +2824,37 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1625.6679999999999</v>
+        <v>1073.048</v>
       </c>
       <c r="O26">
-        <v>5706.5659999999998</v>
+        <v>3496.9760000000001</v>
       </c>
       <c r="P26">
-        <v>3742.4450000000002</v>
+        <v>2240.3009999999999</v>
       </c>
       <c r="Q26">
-        <v>10.032</v>
+        <v>-20.149000000000001</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>40726</v>
       </c>
       <c r="S26">
-        <v>67800</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>1223.914</v>
+        <v>657.8</v>
       </c>
       <c r="U26">
-        <v>460.245</v>
+        <v>44.655000000000001</v>
       </c>
       <c r="V26">
-        <v>397.31599999999997</v>
+        <v>32.781999999999996</v>
       </c>
       <c r="W26">
-        <v>-41.576999999999998</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>-368.87099999999998</v>
+        <v>-21.783999999999999</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,81 +2863,81 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>157.11199999999999</v>
+        <v>86.781999999999996</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42826</v>
+        <v>40817</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C27">
-        <v>70.617000000000004</v>
+        <v>90.831999999999994</v>
       </c>
       <c r="D27">
-        <v>1380.355</v>
+        <v>1185.3040000000001</v>
       </c>
       <c r="E27">
-        <v>800.46699999999998</v>
+        <v>589.43899999999996</v>
       </c>
       <c r="F27">
-        <v>555.00599999999997</v>
+        <v>414.053</v>
       </c>
       <c r="G27">
-        <v>3458.8069999999998</v>
+        <v>2574.8589999999999</v>
       </c>
       <c r="H27">
-        <v>7055.9279999999999</v>
+        <v>4218.58</v>
       </c>
       <c r="I27">
-        <v>756.17600000000004</v>
+        <v>505.88400000000001</v>
       </c>
       <c r="J27">
-        <v>3763.1190000000001</v>
+        <v>2005.7349999999999</v>
       </c>
       <c r="K27">
-        <v>43.417999999999999</v>
+        <v>34.110999999999997</v>
       </c>
       <c r="L27">
-        <v>-107.81399999999999</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>-1039.32</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>1762.4939999999999</v>
+        <v>1037.5830000000001</v>
       </c>
       <c r="O27">
-        <v>6097.8680000000004</v>
+        <v>3468.3389999999999</v>
       </c>
       <c r="P27">
-        <v>4139.9430000000002</v>
+        <v>2214.846</v>
       </c>
       <c r="Q27">
-        <v>3.3780000000000001</v>
+        <v>3.3420000000000001</v>
       </c>
       <c r="R27">
-        <v>42826</v>
+        <v>40817</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>958.06</v>
+        <v>750.24099999999999</v>
       </c>
       <c r="U27">
-        <v>463.62299999999999</v>
+        <v>47.997</v>
       </c>
       <c r="V27">
-        <v>-22.797999999999998</v>
+        <v>41.378999999999998</v>
       </c>
       <c r="W27">
-        <v>-55.875</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>4.5110000000000001</v>
+        <v>-15.709</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,42 +2946,42 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>70.617000000000004</v>
+        <v>90.831999999999994</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42917</v>
+        <v>40908</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C28">
-        <v>172.53200000000001</v>
+        <v>40.965000000000003</v>
       </c>
       <c r="D28">
-        <v>1646.61</v>
+        <v>1100.951</v>
       </c>
       <c r="E28">
-        <v>935.548</v>
+        <v>470.71300000000002</v>
       </c>
       <c r="F28">
-        <v>650.18600000000004</v>
+        <v>328.173</v>
       </c>
       <c r="G28">
-        <v>3578.002</v>
+        <v>2330.7910000000002</v>
       </c>
       <c r="H28">
-        <v>7236.9709999999995</v>
+        <v>4034.6689999999999</v>
       </c>
       <c r="I28">
-        <v>784.96</v>
+        <v>451.52499999999998</v>
       </c>
       <c r="J28">
-        <v>3797.2449999999999</v>
+        <v>1807.777</v>
       </c>
       <c r="K28">
-        <v>72.156999999999996</v>
+        <v>63.075000000000003</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,37 +2990,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1778.588</v>
+        <v>933.71900000000005</v>
       </c>
       <c r="O28">
-        <v>6158.6450000000004</v>
+        <v>3353.6080000000002</v>
       </c>
       <c r="P28">
-        <v>4225.7299999999996</v>
+        <v>2037.7850000000001</v>
       </c>
       <c r="Q28">
-        <v>-14.208</v>
+        <v>-12.651999999999999</v>
       </c>
       <c r="R28">
-        <v>42917</v>
+        <v>40908</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>53300</v>
       </c>
       <c r="T28">
-        <v>1078.326</v>
+        <v>681.06100000000004</v>
       </c>
       <c r="U28">
-        <v>449.41500000000002</v>
+        <v>35.344999999999999</v>
       </c>
       <c r="V28">
-        <v>57.048000000000002</v>
+        <v>194.83099999999999</v>
       </c>
       <c r="W28">
-        <v>-54.654000000000003</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>-59.722000000000001</v>
+        <v>-187.011</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,81 +3029,81 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>172.53200000000001</v>
+        <v>40.965000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>40999</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C29">
-        <v>203.35599999999999</v>
+        <v>-26.83</v>
       </c>
       <c r="D29">
-        <v>1799.27</v>
+        <v>973.13300000000004</v>
       </c>
       <c r="E29">
-        <v>1009.188</v>
+        <v>524.745</v>
       </c>
       <c r="F29">
-        <v>680.68700000000001</v>
+        <v>251.125</v>
       </c>
       <c r="G29">
-        <v>3560.0259999999998</v>
+        <v>2387.5540000000001</v>
       </c>
       <c r="H29">
-        <v>7280.723</v>
+        <v>4076.212</v>
       </c>
       <c r="I29">
-        <v>852.67100000000005</v>
+        <v>401.476</v>
       </c>
       <c r="J29">
-        <v>3566.547</v>
+        <v>1935.777</v>
       </c>
       <c r="K29">
-        <v>23.969000000000001</v>
+        <v>41.648000000000003</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>-102.58199999999999</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>-676</v>
       </c>
       <c r="N29">
-        <v>1896.6289999999999</v>
+        <v>875.53300000000002</v>
       </c>
       <c r="O29">
-        <v>6049.5559999999996</v>
+        <v>3418.4670000000001</v>
       </c>
       <c r="P29">
-        <v>3995.9059999999999</v>
+        <v>2140.7950000000001</v>
       </c>
       <c r="Q29">
-        <v>-49.37</v>
+        <v>-0.745</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>40999</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>1231.1669999999999</v>
+        <v>657.745</v>
       </c>
       <c r="U29">
-        <v>400.04500000000002</v>
+        <v>34.6</v>
       </c>
       <c r="V29">
-        <v>296.83999999999997</v>
+        <v>-94.114999999999995</v>
       </c>
       <c r="W29">
-        <v>-54.682000000000002</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>-312.387</v>
+        <v>102.14400000000001</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,42 +3112,42 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>203.35599999999999</v>
+        <v>-26.83</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43099</v>
+        <v>41090</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30">
-        <v>-384.61099999999999</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>1645.175</v>
+        <v>1180.6510000000001</v>
       </c>
       <c r="E30">
-        <v>903.31799999999998</v>
+        <v>585.97900000000004</v>
       </c>
       <c r="F30">
-        <v>659.64200000000005</v>
+        <v>362.94299999999998</v>
       </c>
       <c r="G30">
-        <v>3386.37</v>
+        <v>2255.5279999999998</v>
       </c>
       <c r="H30">
-        <v>6894.7749999999996</v>
+        <v>3886.056</v>
       </c>
       <c r="I30">
-        <v>867.649</v>
+        <v>394.97800000000001</v>
       </c>
       <c r="J30">
-        <v>3702.0540000000001</v>
+        <v>1660.6849999999999</v>
       </c>
       <c r="K30">
-        <v>11.872999999999999</v>
+        <v>46.692999999999998</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,37 +3156,37 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1778.7449999999999</v>
+        <v>963.44299999999998</v>
       </c>
       <c r="O30">
-        <v>6208.5730000000003</v>
+        <v>3228.2979999999998</v>
       </c>
       <c r="P30">
-        <v>3963.5160000000001</v>
+        <v>2025.576</v>
       </c>
       <c r="Q30">
-        <v>21.521000000000001</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>43099</v>
+        <v>41090</v>
       </c>
       <c r="S30">
-        <v>67200</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>686.202</v>
+        <v>657.75800000000004</v>
       </c>
       <c r="U30">
-        <v>421.56599999999997</v>
+        <v>29.661999999999999</v>
       </c>
       <c r="V30">
-        <v>324.62799999999999</v>
+        <v>0</v>
       </c>
       <c r="W30">
-        <v>-54.692</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>-218.17</v>
+        <v>0</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3135,81 +3195,81 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>-384.61099999999999</v>
+        <v>1.2310000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>41181</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C31">
-        <v>79.409000000000006</v>
+        <v>109.892</v>
       </c>
       <c r="D31">
-        <v>1471.5039999999999</v>
+        <v>1218.681</v>
       </c>
       <c r="E31">
-        <v>874.68399999999997</v>
+        <v>585.49</v>
       </c>
       <c r="F31">
-        <v>589.67399999999998</v>
+        <v>399.93</v>
       </c>
       <c r="G31">
-        <v>3399.826</v>
+        <v>2318.8539999999998</v>
       </c>
       <c r="H31">
-        <v>7327.7749999999996</v>
+        <v>3939.5590000000002</v>
       </c>
       <c r="I31">
-        <v>813.98099999999999</v>
+        <v>429.166</v>
       </c>
       <c r="J31">
-        <v>4185.2520000000004</v>
+        <v>1500</v>
       </c>
       <c r="K31">
-        <v>17.829999999999998</v>
+        <v>50.777999999999999</v>
       </c>
       <c r="L31">
-        <v>-129.00299999999999</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>-782.62199999999996</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>1677.76</v>
+        <v>1078.876</v>
       </c>
       <c r="O31">
-        <v>6622.08</v>
+        <v>3162.4920000000002</v>
       </c>
       <c r="P31">
-        <v>4525.8649999999998</v>
+        <v>1889.9380000000001</v>
       </c>
       <c r="Q31">
-        <v>-21.085999999999999</v>
+        <v>152.607</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>41181</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>705.69500000000005</v>
+        <v>777.06700000000001</v>
       </c>
       <c r="U31">
-        <v>373.66199999999998</v>
+        <v>182.26900000000001</v>
       </c>
       <c r="V31">
-        <v>-128.143</v>
+        <v>296.66500000000002</v>
       </c>
       <c r="W31">
-        <v>-54.052999999999997</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>459.084</v>
+        <v>-134.57499999999999</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,42 +3278,42 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>79.409000000000006</v>
+        <v>109.892</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>41272</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C32">
-        <v>140.63300000000001</v>
+        <v>80.388000000000005</v>
       </c>
       <c r="D32">
-        <v>1715.443</v>
+        <v>1153.2560000000001</v>
       </c>
       <c r="E32">
-        <v>973.80700000000002</v>
+        <v>506.27800000000002</v>
       </c>
       <c r="F32">
-        <v>671.03899999999999</v>
+        <v>398.07100000000003</v>
       </c>
       <c r="G32">
-        <v>3616.7460000000001</v>
+        <v>2027.5250000000001</v>
       </c>
       <c r="H32">
-        <v>7427.8860000000004</v>
+        <v>3631.7</v>
       </c>
       <c r="I32">
-        <v>935.17600000000004</v>
+        <v>403.64400000000001</v>
       </c>
       <c r="J32">
-        <v>4149.201</v>
+        <v>1317.5</v>
       </c>
       <c r="K32">
-        <v>14.54</v>
+        <v>26.216000000000001</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,37 +3322,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1790.8109999999999</v>
+        <v>875.66800000000001</v>
       </c>
       <c r="O32">
-        <v>6660.6949999999997</v>
+        <v>2744.8339999999998</v>
       </c>
       <c r="P32">
-        <v>4498.4759999999997</v>
+        <v>1517.5519999999999</v>
       </c>
       <c r="Q32">
-        <v>-2.5089999999999999</v>
+        <v>-139.47300000000001</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>41272</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>51500</v>
       </c>
       <c r="T32">
-        <v>767.19100000000003</v>
+        <v>886.86599999999999</v>
       </c>
       <c r="U32">
-        <v>397.971</v>
+        <v>42.795999999999999</v>
       </c>
       <c r="V32">
-        <v>63.744999999999997</v>
+        <v>244.202</v>
       </c>
       <c r="W32">
-        <v>-54.061999999999998</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>-41.201000000000001</v>
+        <v>-371.58800000000002</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,81 +3361,81 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>140.63300000000001</v>
+        <v>80.388000000000005</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43372</v>
+        <v>41363</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C33">
-        <v>171.42099999999999</v>
+        <v>51.378999999999998</v>
       </c>
       <c r="D33">
-        <v>1848.7070000000001</v>
+        <v>945.46100000000001</v>
       </c>
       <c r="E33">
-        <v>1044.5160000000001</v>
+        <v>550.65</v>
       </c>
       <c r="F33">
-        <v>724.42700000000002</v>
+        <v>323.43700000000001</v>
       </c>
       <c r="G33">
-        <v>3737.2049999999999</v>
+        <v>2197.558</v>
       </c>
       <c r="H33">
-        <v>7455.5060000000003</v>
+        <v>3807.125</v>
       </c>
       <c r="I33">
-        <v>975.13800000000003</v>
+        <v>419.30200000000002</v>
       </c>
       <c r="J33">
-        <v>3863.58</v>
+        <v>1435</v>
       </c>
       <c r="K33">
-        <v>14.051</v>
+        <v>29.827000000000002</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>-96.042000000000002</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>-835.5</v>
       </c>
       <c r="N33">
-        <v>2027.1279999999999</v>
+        <v>875.56200000000001</v>
       </c>
       <c r="O33">
-        <v>6584.9179999999997</v>
+        <v>2858.5709999999999</v>
       </c>
       <c r="P33">
-        <v>4383.83</v>
+        <v>1624.5740000000001</v>
       </c>
       <c r="Q33">
-        <v>23.736000000000001</v>
+        <v>25.748999999999999</v>
       </c>
       <c r="R33">
-        <v>43372</v>
+        <v>41363</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>870.58799999999997</v>
+        <v>948.55399999999997</v>
       </c>
       <c r="U33">
-        <v>398.49900000000002</v>
+        <v>68.545000000000002</v>
       </c>
       <c r="V33">
-        <v>205.68700000000001</v>
+        <v>-77.908000000000001</v>
       </c>
       <c r="W33">
-        <v>-54.085000000000001</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>-163.30099999999999</v>
+        <v>110.64</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,42 +3444,42 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>171.42099999999999</v>
+        <v>51.378999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43463</v>
+        <v>41454</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C34">
-        <v>148.203</v>
+        <v>121.586</v>
       </c>
       <c r="D34">
-        <v>1768.3009999999999</v>
+        <v>1199.2049999999999</v>
       </c>
       <c r="E34">
-        <v>870.87800000000004</v>
+        <v>616.62199999999996</v>
       </c>
       <c r="F34">
-        <v>706.43399999999997</v>
+        <v>431.995</v>
       </c>
       <c r="G34">
-        <v>3542.1149999999998</v>
+        <v>2259.9639999999999</v>
       </c>
       <c r="H34">
-        <v>7238.24</v>
+        <v>3849.53</v>
       </c>
       <c r="I34">
-        <v>1029.933</v>
+        <v>442.27</v>
       </c>
       <c r="J34">
-        <v>3534.183</v>
+        <v>1374.5</v>
       </c>
       <c r="K34">
-        <v>5.8239999999999998</v>
+        <v>30.305</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,37 +3488,37 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>2045.9380000000001</v>
+        <v>894.00699999999995</v>
       </c>
       <c r="O34">
-        <v>6366.1139999999996</v>
+        <v>2805.3919999999998</v>
       </c>
       <c r="P34">
-        <v>3980.5909999999999</v>
+        <v>1575.2840000000001</v>
       </c>
       <c r="Q34">
-        <v>34.024999999999999</v>
+        <v>13.76</v>
       </c>
       <c r="R34">
-        <v>43463</v>
+        <v>41454</v>
       </c>
       <c r="S34">
-        <v>68000</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>872.12599999999998</v>
+        <v>1044.1379999999999</v>
       </c>
       <c r="U34">
-        <v>433.02199999999999</v>
+        <v>82.305000000000007</v>
       </c>
       <c r="V34">
-        <v>502.113</v>
+        <v>96.233999999999995</v>
       </c>
       <c r="W34">
-        <v>-54.116</v>
+        <v>-19.797000000000001</v>
       </c>
       <c r="X34">
-        <v>-455.07900000000001</v>
+        <v>-72.084999999999994</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -3467,125 +3527,125 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>148.203</v>
+        <v>121.586</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43554</v>
+        <v>41545</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C35">
-        <v>81.087999999999994</v>
+        <v>125.26300000000001</v>
       </c>
       <c r="D35">
-        <v>1588.0239999999999</v>
+        <v>1197.346</v>
       </c>
       <c r="E35">
-        <v>932.875</v>
+        <v>585.71</v>
       </c>
       <c r="F35">
-        <v>637.72299999999996</v>
+        <v>417.82799999999997</v>
       </c>
       <c r="G35">
-        <v>3621.8870000000002</v>
+        <v>2257.0529999999999</v>
       </c>
       <c r="H35">
-        <v>7848.0249999999996</v>
+        <v>3835.0169999999998</v>
       </c>
       <c r="I35">
-        <v>1007.42</v>
+        <v>440.35700000000003</v>
       </c>
       <c r="J35">
-        <v>3615.4929999999999</v>
+        <v>1250</v>
       </c>
       <c r="K35">
-        <v>5.7530000000000001</v>
+        <v>5.2089999999999996</v>
       </c>
       <c r="L35">
-        <v>-151.309</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>-691.125</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>2182.4349999999999</v>
+        <v>913.68499999999995</v>
       </c>
       <c r="O35">
-        <v>6809.9870000000001</v>
+        <v>2682.913</v>
       </c>
       <c r="P35">
-        <v>4611.8609999999999</v>
+        <v>1421.8230000000001</v>
       </c>
       <c r="Q35">
-        <v>-145.613</v>
+        <v>50.015000000000001</v>
       </c>
       <c r="R35">
-        <v>43554</v>
+        <v>41545</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>1038.038</v>
+        <v>1152.104</v>
       </c>
       <c r="U35">
-        <v>287.08</v>
+        <v>132.32</v>
       </c>
       <c r="V35">
-        <v>-194.291</v>
+        <v>238.65899999999999</v>
       </c>
       <c r="W35">
-        <v>-54.220999999999997</v>
+        <v>-19.818000000000001</v>
       </c>
       <c r="X35">
-        <v>71.706999999999994</v>
+        <v>-179.97399999999999</v>
       </c>
       <c r="Y35">
-        <v>373.36500000000001</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>81.087999999999994</v>
+        <v>125.26300000000001</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43645</v>
+        <v>41636</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C36">
-        <v>149.55500000000001</v>
+        <v>32.265999999999998</v>
       </c>
       <c r="D36">
-        <v>1760.9269999999999</v>
+        <v>1285.79</v>
       </c>
       <c r="E36">
-        <v>1011.816</v>
+        <v>578.55799999999999</v>
       </c>
       <c r="F36">
-        <v>688.12099999999998</v>
+        <v>439.375</v>
       </c>
       <c r="G36">
-        <v>3656.442</v>
+        <v>2243.6660000000002</v>
       </c>
       <c r="H36">
-        <v>7876.8919999999998</v>
+        <v>4090.0479999999998</v>
       </c>
       <c r="I36">
-        <v>1026.8630000000001</v>
+        <v>466.27</v>
       </c>
       <c r="J36">
-        <v>3671.0659999999998</v>
+        <v>1467</v>
       </c>
       <c r="K36">
-        <v>4.6950000000000003</v>
+        <v>36.192</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,164 +3654,164 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>2069.817</v>
+        <v>999.27800000000002</v>
       </c>
       <c r="O36">
-        <v>6742.0420000000004</v>
+        <v>2859.4250000000002</v>
       </c>
       <c r="P36">
-        <v>4538.6779999999999</v>
+        <v>1684.982</v>
       </c>
       <c r="Q36">
-        <v>-52.177999999999997</v>
+        <v>-16.457000000000001</v>
       </c>
       <c r="R36">
-        <v>43645</v>
+        <v>41636</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>49700</v>
       </c>
       <c r="T36">
-        <v>1134.8499999999999</v>
+        <v>1230.623</v>
       </c>
       <c r="U36">
-        <v>257.94099999999997</v>
+        <v>115.863</v>
       </c>
       <c r="V36">
-        <v>136.928</v>
+        <v>334.29599999999999</v>
       </c>
       <c r="W36">
-        <v>-54.228000000000002</v>
+        <v>-19.827000000000002</v>
       </c>
       <c r="X36">
-        <v>-135.928</v>
+        <v>235.17599999999999</v>
       </c>
       <c r="Y36">
-        <v>371.964</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>149.55500000000001</v>
+        <v>32.265999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43736</v>
+        <v>41727</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C37">
-        <v>185.09100000000001</v>
+        <v>41.56</v>
       </c>
       <c r="D37">
-        <v>1866.9670000000001</v>
+        <v>1059.3699999999999</v>
       </c>
       <c r="E37">
-        <v>1033.9380000000001</v>
+        <v>611.6</v>
       </c>
       <c r="F37">
-        <v>726.45699999999999</v>
+        <v>371.60399999999998</v>
       </c>
       <c r="G37">
-        <v>3625.97</v>
+        <v>2440.951</v>
       </c>
       <c r="H37">
-        <v>7773.2979999999998</v>
+        <v>4273.9189999999999</v>
       </c>
       <c r="I37">
-        <v>997.06899999999996</v>
+        <v>492.35700000000003</v>
       </c>
       <c r="J37">
-        <v>3467.5909999999999</v>
+        <v>1620</v>
       </c>
       <c r="K37">
-        <v>4.2750000000000004</v>
+        <v>38.488</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>-96.099000000000004</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>-965</v>
       </c>
       <c r="N37">
-        <v>2096.904</v>
+        <v>1029.3630000000001</v>
       </c>
       <c r="O37">
-        <v>6543.0559999999996</v>
+        <v>3027.442</v>
       </c>
       <c r="P37">
-        <v>4341.5169999999998</v>
+        <v>1823.367</v>
       </c>
       <c r="Q37">
-        <v>60.103000000000002</v>
+        <v>35.273000000000003</v>
       </c>
       <c r="R37">
-        <v>43736</v>
+        <v>41727</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>1230.242</v>
+        <v>1246.4770000000001</v>
       </c>
       <c r="U37">
-        <v>317.024</v>
+        <v>151.136</v>
       </c>
       <c r="V37">
-        <v>302.06299999999999</v>
+        <v>-62.235999999999997</v>
       </c>
       <c r="W37">
-        <v>-54.24</v>
+        <v>-29.85</v>
       </c>
       <c r="X37">
-        <v>-221.39500000000001</v>
+        <v>110.191</v>
       </c>
       <c r="Y37">
-        <v>364.08300000000003</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>185.09100000000001</v>
+        <v>41.56</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43827</v>
+        <v>41818</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C38">
-        <v>184.98599999999999</v>
+        <v>154.578</v>
       </c>
       <c r="D38">
-        <v>1751.0050000000001</v>
+        <v>1342.0519999999999</v>
       </c>
       <c r="E38">
-        <v>815.21</v>
+        <v>779.52</v>
       </c>
       <c r="F38">
-        <v>725.29600000000005</v>
+        <v>508.18900000000002</v>
       </c>
       <c r="G38">
-        <v>3224.5650000000001</v>
+        <v>2587.7359999999999</v>
       </c>
       <c r="H38">
-        <v>7353.9859999999999</v>
+        <v>4415.018</v>
       </c>
       <c r="I38">
-        <v>959.00599999999997</v>
+        <v>563.75800000000004</v>
       </c>
       <c r="J38">
-        <v>3256.87</v>
+        <v>1523</v>
       </c>
       <c r="K38">
-        <v>4.2439999999999998</v>
+        <v>40.802</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3820,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1771.4390000000001</v>
+        <v>1155.338</v>
       </c>
       <c r="O38">
-        <v>6117.3909999999996</v>
+        <v>3036.59</v>
       </c>
       <c r="P38">
-        <v>3896.4</v>
+        <v>1788.8019999999999</v>
       </c>
       <c r="Q38">
-        <v>11.879</v>
+        <v>-7.5190000000000001</v>
       </c>
       <c r="R38">
-        <v>43827</v>
+        <v>41818</v>
       </c>
       <c r="S38">
-        <v>63000</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>1236.595</v>
+        <v>1378.4280000000001</v>
       </c>
       <c r="U38">
-        <v>328.87599999999998</v>
+        <v>143.61699999999999</v>
       </c>
       <c r="V38">
-        <v>558.73199999999997</v>
+        <v>67.174000000000007</v>
       </c>
       <c r="W38">
-        <v>-54.268999999999998</v>
+        <v>-29.881</v>
       </c>
       <c r="X38">
-        <v>-538.39400000000001</v>
+        <v>-67.572999999999993</v>
       </c>
       <c r="Y38">
-        <v>358.28100000000001</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>184.98599999999999</v>
+        <v>154.578</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43918</v>
+        <v>41909</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C39">
-        <v>-7.8739999999999997</v>
+        <v>118.944</v>
       </c>
       <c r="D39">
-        <v>1316.462</v>
+        <v>1400.7280000000001</v>
       </c>
       <c r="E39">
-        <v>725.09199999999998</v>
+        <v>874.92200000000003</v>
       </c>
       <c r="F39">
-        <v>495.54500000000002</v>
+        <v>520.28</v>
       </c>
       <c r="G39">
-        <v>3950.873</v>
+        <v>3154.42</v>
       </c>
       <c r="H39">
-        <v>7943.259</v>
+        <v>5543.4939999999997</v>
       </c>
       <c r="I39">
-        <v>925.41700000000003</v>
+        <v>673.93700000000001</v>
       </c>
       <c r="J39">
-        <v>4236.9549999999999</v>
+        <v>1908.7329999999999</v>
       </c>
       <c r="K39">
-        <v>2.17</v>
+        <v>137.94800000000001</v>
       </c>
       <c r="L39">
-        <v>-139.261</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>-688</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>1789.068</v>
+        <v>1675.9549999999999</v>
       </c>
       <c r="O39">
-        <v>7069.6880000000001</v>
+        <v>4078.8240000000001</v>
       </c>
       <c r="P39">
-        <v>5012.0529999999999</v>
+        <v>2291.502</v>
       </c>
       <c r="Q39">
-        <v>754.76</v>
+        <v>72.215000000000003</v>
       </c>
       <c r="R39">
-        <v>43918</v>
+        <v>41909</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>873.57100000000003</v>
+        <v>1464.67</v>
       </c>
       <c r="U39">
-        <v>1083.78</v>
+        <v>215.83199999999999</v>
       </c>
       <c r="V39">
-        <v>-83.215999999999994</v>
+        <v>210.38300000000001</v>
       </c>
       <c r="W39">
-        <v>-53.683</v>
+        <v>-29.907</v>
       </c>
       <c r="X39">
-        <v>877.51400000000001</v>
+        <v>250.083</v>
       </c>
       <c r="Y39">
-        <v>358.84800000000001</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>-7.8739999999999997</v>
+        <v>118.944</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44009</v>
+        <v>42007</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C40">
-        <v>161.18100000000001</v>
+        <v>89.436999999999998</v>
       </c>
       <c r="D40">
-        <v>1738.779</v>
+        <v>1522.596</v>
       </c>
       <c r="E40">
-        <v>1196.826</v>
+        <v>672.048</v>
       </c>
       <c r="F40">
-        <v>659.54600000000005</v>
+        <v>577.45899999999995</v>
       </c>
       <c r="G40">
-        <v>4031.8049999999998</v>
+        <v>2550.1669999999999</v>
       </c>
       <c r="H40">
-        <v>8112.96</v>
+        <v>5208.1930000000002</v>
       </c>
       <c r="I40">
-        <v>1152.2729999999999</v>
+        <v>621.22</v>
       </c>
       <c r="J40">
-        <v>3985.6309999999999</v>
+        <v>1613.9970000000001</v>
       </c>
       <c r="K40">
-        <v>8.8030000000000008</v>
+        <v>144.43799999999999</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,211 +3986,2037 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>2002.248</v>
+        <v>1482.414</v>
       </c>
       <c r="O40">
-        <v>7033.64</v>
+        <v>3821.4209999999998</v>
       </c>
       <c r="P40">
-        <v>4629.9480000000003</v>
+        <v>1983.752</v>
       </c>
       <c r="Q40">
-        <v>-401.56900000000002</v>
+        <v>24.023</v>
       </c>
       <c r="R40">
-        <v>44009</v>
+        <v>42007</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>59500</v>
       </c>
       <c r="T40">
-        <v>1079.32</v>
+        <v>1386.7719999999999</v>
       </c>
       <c r="U40">
-        <v>683.11400000000003</v>
+        <v>239.85499999999999</v>
       </c>
       <c r="V40">
-        <v>65.423000000000002</v>
+        <v>292.76900000000001</v>
       </c>
       <c r="W40">
-        <v>-52.213000000000001</v>
+        <v>-29.969000000000001</v>
       </c>
       <c r="X40">
-        <v>-462.19600000000003</v>
+        <v>-316.46600000000001</v>
       </c>
       <c r="Y40">
-        <v>362.57</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>64.38</v>
       </c>
       <c r="AA40">
-        <v>161.18100000000001</v>
+        <v>89.436999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44100</v>
+        <v>42098</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C41">
-        <v>103.27800000000001</v>
+        <v>52.636000000000003</v>
       </c>
       <c r="D41">
-        <v>1808.2660000000001</v>
+        <v>1208.921</v>
       </c>
       <c r="E41">
-        <v>984.57100000000003</v>
+        <v>713.11300000000006</v>
       </c>
       <c r="F41">
-        <v>664.34900000000005</v>
+        <v>460.29899999999998</v>
       </c>
       <c r="G41">
-        <v>4097.2209999999995</v>
+        <v>3020.6880000000001</v>
       </c>
       <c r="H41">
-        <v>8159.6840000000002</v>
+        <v>5407.9260000000004</v>
       </c>
       <c r="I41">
-        <v>1144.19</v>
+        <v>613.26099999999997</v>
       </c>
       <c r="J41">
-        <v>3972.212</v>
+        <v>1973.876</v>
       </c>
       <c r="K41">
-        <v>5.2569999999999997</v>
+        <v>116.742</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>-151.53</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>-923.88699999999994</v>
       </c>
       <c r="N41">
-        <v>2022.7460000000001</v>
+        <v>1400.7460000000001</v>
       </c>
       <c r="O41">
-        <v>7010.1509999999998</v>
+        <v>4004.6970000000001</v>
       </c>
       <c r="P41">
-        <v>4481.7820000000002</v>
+        <v>2301.6909999999998</v>
       </c>
       <c r="Q41">
-        <v>49.44</v>
+        <v>37.212000000000003</v>
       </c>
       <c r="R41">
-        <v>44100</v>
+        <v>42098</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>1149.5329999999999</v>
+        <v>1403.229</v>
       </c>
       <c r="U41">
-        <v>731.48099999999999</v>
+        <v>277.06700000000001</v>
       </c>
       <c r="V41">
-        <v>249.01499999999999</v>
+        <v>-259.34500000000003</v>
       </c>
       <c r="W41">
-        <v>-52.235999999999997</v>
+        <v>-40.082999999999998</v>
       </c>
       <c r="X41">
-        <v>-211.87700000000001</v>
+        <v>333.75400000000002</v>
       </c>
       <c r="Y41">
-        <v>347.60399999999998</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>103.27800000000001</v>
+        <v>52.636000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
+        <v>42189</v>
+      </c>
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42">
+        <v>94.902000000000001</v>
+      </c>
+      <c r="D42">
+        <v>1522.0329999999999</v>
+      </c>
+      <c r="E42">
+        <v>835.29899999999998</v>
+      </c>
+      <c r="F42">
+        <v>594.37599999999998</v>
+      </c>
+      <c r="G42">
+        <v>3296.3220000000001</v>
+      </c>
+      <c r="H42">
+        <v>5872.3810000000003</v>
+      </c>
+      <c r="I42">
+        <v>661.36900000000003</v>
+      </c>
+      <c r="J42">
+        <v>2217.7600000000002</v>
+      </c>
+      <c r="K42">
+        <v>112.818</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1513.69</v>
+      </c>
+      <c r="O42">
+        <v>4420.6090000000004</v>
+      </c>
+      <c r="P42">
+        <v>2597.143</v>
+      </c>
+      <c r="Q42">
+        <v>38.286999999999999</v>
+      </c>
+      <c r="R42">
+        <v>42189</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>1451.7719999999999</v>
+      </c>
+      <c r="U42">
+        <v>315.35399999999998</v>
+      </c>
+      <c r="V42">
+        <v>26.277000000000001</v>
+      </c>
+      <c r="W42">
+        <v>-41.387</v>
+      </c>
+      <c r="X42">
+        <v>222.947</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>94.902000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>42280</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43">
+        <v>162.154</v>
+      </c>
+      <c r="D43">
+        <v>1591.038</v>
+      </c>
+      <c r="E43">
+        <v>850.33399999999995</v>
+      </c>
+      <c r="F43">
+        <v>588.47</v>
+      </c>
+      <c r="G43">
+        <v>3265.4540000000002</v>
+      </c>
+      <c r="H43">
+        <v>5819.4</v>
+      </c>
+      <c r="I43">
+        <v>637.78800000000001</v>
+      </c>
+      <c r="J43">
+        <v>2361.607</v>
+      </c>
+      <c r="K43">
+        <v>120.083</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>1572.1369999999999</v>
+      </c>
+      <c r="O43">
+        <v>4569.1009999999997</v>
+      </c>
+      <c r="P43">
+        <v>2779.3609999999999</v>
+      </c>
+      <c r="Q43">
+        <v>-30.759</v>
+      </c>
+      <c r="R43">
+        <v>42280</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1250.299</v>
+      </c>
+      <c r="U43">
+        <v>284.59500000000003</v>
+      </c>
+      <c r="V43">
+        <v>145.91399999999999</v>
+      </c>
+      <c r="W43">
+        <v>-40.243000000000002</v>
+      </c>
+      <c r="X43">
+        <v>-170.297</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>162.154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>42371</v>
+      </c>
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44">
+        <v>119.163</v>
+      </c>
+      <c r="D44">
+        <v>1409.557</v>
+      </c>
+      <c r="E44">
+        <v>680.41700000000003</v>
+      </c>
+      <c r="F44">
+        <v>556.04600000000005</v>
+      </c>
+      <c r="G44">
+        <v>2917.8670000000002</v>
+      </c>
+      <c r="H44">
+        <v>5597.59</v>
+      </c>
+      <c r="I44">
+        <v>672.97199999999998</v>
+      </c>
+      <c r="J44">
+        <v>2232.712</v>
+      </c>
+      <c r="K44">
+        <v>117.785</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1503.9090000000001</v>
+      </c>
+      <c r="O44">
+        <v>4321.6989999999996</v>
+      </c>
+      <c r="P44">
+        <v>2603.3159999999998</v>
+      </c>
+      <c r="Q44">
+        <v>34.573999999999998</v>
+      </c>
+      <c r="R44">
+        <v>42371</v>
+      </c>
+      <c r="S44">
+        <v>65300</v>
+      </c>
+      <c r="T44">
+        <v>1275.8910000000001</v>
+      </c>
+      <c r="U44">
+        <v>319.16899999999998</v>
+      </c>
+      <c r="V44">
+        <v>314.161</v>
+      </c>
+      <c r="W44">
+        <v>-39.603000000000002</v>
+      </c>
+      <c r="X44">
+        <v>-253.422</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>119.163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>42462</v>
+      </c>
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45">
+        <v>80.269000000000005</v>
+      </c>
+      <c r="D45">
+        <v>1219.1400000000001</v>
+      </c>
+      <c r="E45">
+        <v>722.10299999999995</v>
+      </c>
+      <c r="F45">
+        <v>462.125</v>
+      </c>
+      <c r="G45">
+        <v>3117.68</v>
+      </c>
+      <c r="H45">
+        <v>5822.0609999999997</v>
+      </c>
+      <c r="I45">
+        <v>530.43600000000004</v>
+      </c>
+      <c r="J45">
+        <v>2963.424</v>
+      </c>
+      <c r="K45">
+        <v>115.23699999999999</v>
+      </c>
+      <c r="L45">
+        <v>-415.44</v>
+      </c>
+      <c r="M45">
+        <v>-744.35400000000004</v>
+      </c>
+      <c r="N45">
+        <v>1368.5119999999999</v>
+      </c>
+      <c r="O45">
+        <v>4870.0200000000004</v>
+      </c>
+      <c r="P45">
+        <v>3340.9859999999999</v>
+      </c>
+      <c r="Q45">
+        <v>13.253</v>
+      </c>
+      <c r="R45">
+        <v>42462</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>952.04100000000005</v>
+      </c>
+      <c r="U45">
+        <v>332.42200000000003</v>
+      </c>
+      <c r="V45">
+        <v>-284.80599999999998</v>
+      </c>
+      <c r="W45">
+        <v>-42.683</v>
+      </c>
+      <c r="X45">
+        <v>314.68400000000003</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>80.269000000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>42553</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46">
+        <v>128.143</v>
+      </c>
+      <c r="D46">
+        <v>1472.731</v>
+      </c>
+      <c r="E46">
+        <v>857.56200000000001</v>
+      </c>
+      <c r="F46">
+        <v>566.59100000000001</v>
+      </c>
+      <c r="G46">
+        <v>3633.4920000000002</v>
+      </c>
+      <c r="H46">
+        <v>6614.65</v>
+      </c>
+      <c r="I46">
+        <v>664.18600000000004</v>
+      </c>
+      <c r="J46">
+        <v>3466.5250000000001</v>
+      </c>
+      <c r="K46">
+        <v>85.528000000000006</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1550.914</v>
+      </c>
+      <c r="O46">
+        <v>5564.9579999999996</v>
+      </c>
+      <c r="P46">
+        <v>3827.8020000000001</v>
+      </c>
+      <c r="Q46">
+        <v>328.57499999999999</v>
+      </c>
+      <c r="R46">
+        <v>42553</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>1049.692</v>
+      </c>
+      <c r="U46">
+        <v>660.99699999999996</v>
+      </c>
+      <c r="V46">
+        <v>155.72800000000001</v>
+      </c>
+      <c r="W46">
+        <v>-41.551000000000002</v>
+      </c>
+      <c r="X46">
+        <v>375.99700000000001</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>128.143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>42644</v>
+      </c>
+      <c r="B47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47">
+        <v>173.858</v>
+      </c>
+      <c r="D47">
+        <v>1761.019</v>
+      </c>
+      <c r="E47">
+        <v>961.65899999999999</v>
+      </c>
+      <c r="F47">
+        <v>662.92899999999997</v>
+      </c>
+      <c r="G47">
+        <v>3562.127</v>
+      </c>
+      <c r="H47">
+        <v>7304.3339999999998</v>
+      </c>
+      <c r="I47">
+        <v>757.72</v>
+      </c>
+      <c r="J47">
+        <v>3684.4079999999999</v>
+      </c>
+      <c r="K47">
+        <v>60.646000000000001</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1872.88</v>
+      </c>
+      <c r="O47">
+        <v>6117.8090000000002</v>
+      </c>
+      <c r="P47">
+        <v>4128.49</v>
+      </c>
+      <c r="Q47">
+        <v>-210.78399999999999</v>
+      </c>
+      <c r="R47">
+        <v>42644</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1186.5250000000001</v>
+      </c>
+      <c r="U47">
+        <v>450.21300000000002</v>
+      </c>
+      <c r="V47">
+        <v>337.36900000000003</v>
+      </c>
+      <c r="W47">
+        <v>-41.564</v>
+      </c>
+      <c r="X47">
+        <v>189.244</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>173.858</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48">
+        <v>157.11199999999999</v>
+      </c>
+      <c r="D48">
+        <v>1575.309</v>
+      </c>
+      <c r="E48">
+        <v>836.92399999999998</v>
+      </c>
+      <c r="F48">
+        <v>623.78200000000004</v>
+      </c>
+      <c r="G48">
+        <v>3321.1660000000002</v>
+      </c>
+      <c r="H48">
+        <v>6930.48</v>
+      </c>
+      <c r="I48">
+        <v>761.64700000000005</v>
+      </c>
+      <c r="J48">
+        <v>3507.6849999999999</v>
+      </c>
+      <c r="K48">
+        <v>56.396000000000001</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1625.6679999999999</v>
+      </c>
+      <c r="O48">
+        <v>5706.5659999999998</v>
+      </c>
+      <c r="P48">
+        <v>3742.4450000000002</v>
+      </c>
+      <c r="Q48">
+        <v>10.032</v>
+      </c>
+      <c r="R48">
+        <v>42735</v>
+      </c>
+      <c r="S48">
+        <v>67800</v>
+      </c>
+      <c r="T48">
+        <v>1223.914</v>
+      </c>
+      <c r="U48">
+        <v>460.245</v>
+      </c>
+      <c r="V48">
+        <v>397.31599999999997</v>
+      </c>
+      <c r="W48">
+        <v>-41.576999999999998</v>
+      </c>
+      <c r="X48">
+        <v>-368.87099999999998</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>157.11199999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>42826</v>
+      </c>
+      <c r="B49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49">
+        <v>70.617000000000004</v>
+      </c>
+      <c r="D49">
+        <v>1380.355</v>
+      </c>
+      <c r="E49">
+        <v>800.46699999999998</v>
+      </c>
+      <c r="F49">
+        <v>555.00599999999997</v>
+      </c>
+      <c r="G49">
+        <v>3458.8069999999998</v>
+      </c>
+      <c r="H49">
+        <v>7055.9279999999999</v>
+      </c>
+      <c r="I49">
+        <v>756.17600000000004</v>
+      </c>
+      <c r="J49">
+        <v>3763.1190000000001</v>
+      </c>
+      <c r="K49">
+        <v>43.417999999999999</v>
+      </c>
+      <c r="L49">
+        <v>-107.81399999999999</v>
+      </c>
+      <c r="M49">
+        <v>-1039.32</v>
+      </c>
+      <c r="N49">
+        <v>1762.4939999999999</v>
+      </c>
+      <c r="O49">
+        <v>6097.8680000000004</v>
+      </c>
+      <c r="P49">
+        <v>4139.9430000000002</v>
+      </c>
+      <c r="Q49">
+        <v>3.3780000000000001</v>
+      </c>
+      <c r="R49">
+        <v>42826</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>958.06</v>
+      </c>
+      <c r="U49">
+        <v>463.62299999999999</v>
+      </c>
+      <c r="V49">
+        <v>-22.797999999999998</v>
+      </c>
+      <c r="W49">
+        <v>-55.875</v>
+      </c>
+      <c r="X49">
+        <v>4.5110000000000001</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>70.617000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>42917</v>
+      </c>
+      <c r="B50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50">
+        <v>172.53200000000001</v>
+      </c>
+      <c r="D50">
+        <v>1646.61</v>
+      </c>
+      <c r="E50">
+        <v>935.548</v>
+      </c>
+      <c r="F50">
+        <v>650.18600000000004</v>
+      </c>
+      <c r="G50">
+        <v>3578.002</v>
+      </c>
+      <c r="H50">
+        <v>7236.9709999999995</v>
+      </c>
+      <c r="I50">
+        <v>784.96</v>
+      </c>
+      <c r="J50">
+        <v>3797.2449999999999</v>
+      </c>
+      <c r="K50">
+        <v>72.156999999999996</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1778.588</v>
+      </c>
+      <c r="O50">
+        <v>6158.6450000000004</v>
+      </c>
+      <c r="P50">
+        <v>4225.7299999999996</v>
+      </c>
+      <c r="Q50">
+        <v>-14.208</v>
+      </c>
+      <c r="R50">
+        <v>42917</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>1078.326</v>
+      </c>
+      <c r="U50">
+        <v>449.41500000000002</v>
+      </c>
+      <c r="V50">
+        <v>57.048000000000002</v>
+      </c>
+      <c r="W50">
+        <v>-54.654000000000003</v>
+      </c>
+      <c r="X50">
+        <v>-59.722000000000001</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>172.53200000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51">
+        <v>203.35599999999999</v>
+      </c>
+      <c r="D51">
+        <v>1799.27</v>
+      </c>
+      <c r="E51">
+        <v>1009.188</v>
+      </c>
+      <c r="F51">
+        <v>680.68700000000001</v>
+      </c>
+      <c r="G51">
+        <v>3560.0259999999998</v>
+      </c>
+      <c r="H51">
+        <v>7280.723</v>
+      </c>
+      <c r="I51">
+        <v>852.67100000000005</v>
+      </c>
+      <c r="J51">
+        <v>3566.547</v>
+      </c>
+      <c r="K51">
+        <v>23.969000000000001</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1896.6289999999999</v>
+      </c>
+      <c r="O51">
+        <v>6049.5559999999996</v>
+      </c>
+      <c r="P51">
+        <v>3995.9059999999999</v>
+      </c>
+      <c r="Q51">
+        <v>-49.37</v>
+      </c>
+      <c r="R51">
+        <v>43008</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>1231.1669999999999</v>
+      </c>
+      <c r="U51">
+        <v>400.04500000000002</v>
+      </c>
+      <c r="V51">
+        <v>296.83999999999997</v>
+      </c>
+      <c r="W51">
+        <v>-54.682000000000002</v>
+      </c>
+      <c r="X51">
+        <v>-312.387</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>203.35599999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>43099</v>
+      </c>
+      <c r="B52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52">
+        <v>-384.61099999999999</v>
+      </c>
+      <c r="D52">
+        <v>1645.175</v>
+      </c>
+      <c r="E52">
+        <v>903.31799999999998</v>
+      </c>
+      <c r="F52">
+        <v>659.64200000000005</v>
+      </c>
+      <c r="G52">
+        <v>3386.37</v>
+      </c>
+      <c r="H52">
+        <v>6894.7749999999996</v>
+      </c>
+      <c r="I52">
+        <v>867.649</v>
+      </c>
+      <c r="J52">
+        <v>3702.0540000000001</v>
+      </c>
+      <c r="K52">
+        <v>11.872999999999999</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1778.7449999999999</v>
+      </c>
+      <c r="O52">
+        <v>6208.5730000000003</v>
+      </c>
+      <c r="P52">
+        <v>3963.5160000000001</v>
+      </c>
+      <c r="Q52">
+        <v>21.521000000000001</v>
+      </c>
+      <c r="R52">
+        <v>43099</v>
+      </c>
+      <c r="S52">
+        <v>67200</v>
+      </c>
+      <c r="T52">
+        <v>686.202</v>
+      </c>
+      <c r="U52">
+        <v>421.56599999999997</v>
+      </c>
+      <c r="V52">
+        <v>324.62799999999999</v>
+      </c>
+      <c r="W52">
+        <v>-54.692</v>
+      </c>
+      <c r="X52">
+        <v>-218.17</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>-384.61099999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53">
+        <v>79.409000000000006</v>
+      </c>
+      <c r="D53">
+        <v>1471.5039999999999</v>
+      </c>
+      <c r="E53">
+        <v>874.68399999999997</v>
+      </c>
+      <c r="F53">
+        <v>589.67399999999998</v>
+      </c>
+      <c r="G53">
+        <v>3399.826</v>
+      </c>
+      <c r="H53">
+        <v>7327.7749999999996</v>
+      </c>
+      <c r="I53">
+        <v>813.98099999999999</v>
+      </c>
+      <c r="J53">
+        <v>4185.2520000000004</v>
+      </c>
+      <c r="K53">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="L53">
+        <v>-129.00299999999999</v>
+      </c>
+      <c r="M53">
+        <v>-782.62199999999996</v>
+      </c>
+      <c r="N53">
+        <v>1677.76</v>
+      </c>
+      <c r="O53">
+        <v>6622.08</v>
+      </c>
+      <c r="P53">
+        <v>4525.8649999999998</v>
+      </c>
+      <c r="Q53">
+        <v>-21.085999999999999</v>
+      </c>
+      <c r="R53">
+        <v>43190</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>705.69500000000005</v>
+      </c>
+      <c r="U53">
+        <v>373.66199999999998</v>
+      </c>
+      <c r="V53">
+        <v>-128.143</v>
+      </c>
+      <c r="W53">
+        <v>-54.052999999999997</v>
+      </c>
+      <c r="X53">
+        <v>459.084</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>79.409000000000006</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54">
+        <v>140.63300000000001</v>
+      </c>
+      <c r="D54">
+        <v>1715.443</v>
+      </c>
+      <c r="E54">
+        <v>973.80700000000002</v>
+      </c>
+      <c r="F54">
+        <v>671.03899999999999</v>
+      </c>
+      <c r="G54">
+        <v>3616.7460000000001</v>
+      </c>
+      <c r="H54">
+        <v>7427.8860000000004</v>
+      </c>
+      <c r="I54">
+        <v>935.17600000000004</v>
+      </c>
+      <c r="J54">
+        <v>4149.201</v>
+      </c>
+      <c r="K54">
+        <v>14.54</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1790.8109999999999</v>
+      </c>
+      <c r="O54">
+        <v>6660.6949999999997</v>
+      </c>
+      <c r="P54">
+        <v>4498.4759999999997</v>
+      </c>
+      <c r="Q54">
+        <v>-2.5089999999999999</v>
+      </c>
+      <c r="R54">
+        <v>43281</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>767.19100000000003</v>
+      </c>
+      <c r="U54">
+        <v>397.971</v>
+      </c>
+      <c r="V54">
+        <v>63.744999999999997</v>
+      </c>
+      <c r="W54">
+        <v>-54.061999999999998</v>
+      </c>
+      <c r="X54">
+        <v>-41.201000000000001</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>140.63300000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>43372</v>
+      </c>
+      <c r="B55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55">
+        <v>171.42099999999999</v>
+      </c>
+      <c r="D55">
+        <v>1848.7070000000001</v>
+      </c>
+      <c r="E55">
+        <v>1044.5160000000001</v>
+      </c>
+      <c r="F55">
+        <v>724.42700000000002</v>
+      </c>
+      <c r="G55">
+        <v>3737.2049999999999</v>
+      </c>
+      <c r="H55">
+        <v>7455.5060000000003</v>
+      </c>
+      <c r="I55">
+        <v>975.13800000000003</v>
+      </c>
+      <c r="J55">
+        <v>3863.58</v>
+      </c>
+      <c r="K55">
+        <v>14.051</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>2027.1279999999999</v>
+      </c>
+      <c r="O55">
+        <v>6584.9179999999997</v>
+      </c>
+      <c r="P55">
+        <v>4383.83</v>
+      </c>
+      <c r="Q55">
+        <v>23.736000000000001</v>
+      </c>
+      <c r="R55">
+        <v>43372</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>870.58799999999997</v>
+      </c>
+      <c r="U55">
+        <v>398.49900000000002</v>
+      </c>
+      <c r="V55">
+        <v>205.68700000000001</v>
+      </c>
+      <c r="W55">
+        <v>-54.085000000000001</v>
+      </c>
+      <c r="X55">
+        <v>-163.30099999999999</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>171.42099999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>43463</v>
+      </c>
+      <c r="B56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56">
+        <v>148.203</v>
+      </c>
+      <c r="D56">
+        <v>1768.3009999999999</v>
+      </c>
+      <c r="E56">
+        <v>870.87800000000004</v>
+      </c>
+      <c r="F56">
+        <v>706.43399999999997</v>
+      </c>
+      <c r="G56">
+        <v>3542.1149999999998</v>
+      </c>
+      <c r="H56">
+        <v>7238.24</v>
+      </c>
+      <c r="I56">
+        <v>1029.933</v>
+      </c>
+      <c r="J56">
+        <v>3534.183</v>
+      </c>
+      <c r="K56">
+        <v>5.8239999999999998</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>2045.9380000000001</v>
+      </c>
+      <c r="O56">
+        <v>6366.1139999999996</v>
+      </c>
+      <c r="P56">
+        <v>3980.5909999999999</v>
+      </c>
+      <c r="Q56">
+        <v>34.024999999999999</v>
+      </c>
+      <c r="R56">
+        <v>43463</v>
+      </c>
+      <c r="S56">
+        <v>68000</v>
+      </c>
+      <c r="T56">
+        <v>872.12599999999998</v>
+      </c>
+      <c r="U56">
+        <v>433.02199999999999</v>
+      </c>
+      <c r="V56">
+        <v>502.113</v>
+      </c>
+      <c r="W56">
+        <v>-54.116</v>
+      </c>
+      <c r="X56">
+        <v>-455.07900000000001</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>148.203</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>43554</v>
+      </c>
+      <c r="B57" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57">
+        <v>81.087999999999994</v>
+      </c>
+      <c r="D57">
+        <v>1588.0239999999999</v>
+      </c>
+      <c r="E57">
+        <v>932.875</v>
+      </c>
+      <c r="F57">
+        <v>637.72299999999996</v>
+      </c>
+      <c r="G57">
+        <v>3621.8870000000002</v>
+      </c>
+      <c r="H57">
+        <v>7848.0249999999996</v>
+      </c>
+      <c r="I57">
+        <v>1007.42</v>
+      </c>
+      <c r="J57">
+        <v>3615.4929999999999</v>
+      </c>
+      <c r="K57">
+        <v>5.7530000000000001</v>
+      </c>
+      <c r="L57">
+        <v>-151.309</v>
+      </c>
+      <c r="M57">
+        <v>-691.125</v>
+      </c>
+      <c r="N57">
+        <v>2182.4349999999999</v>
+      </c>
+      <c r="O57">
+        <v>6809.9870000000001</v>
+      </c>
+      <c r="P57">
+        <v>4611.8609999999999</v>
+      </c>
+      <c r="Q57">
+        <v>-145.613</v>
+      </c>
+      <c r="R57">
+        <v>43554</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>1038.038</v>
+      </c>
+      <c r="U57">
+        <v>287.08</v>
+      </c>
+      <c r="V57">
+        <v>-194.291</v>
+      </c>
+      <c r="W57">
+        <v>-54.220999999999997</v>
+      </c>
+      <c r="X57">
+        <v>71.706999999999994</v>
+      </c>
+      <c r="Y57">
+        <v>373.36500000000001</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>81.087999999999994</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>43645</v>
+      </c>
+      <c r="B58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58">
+        <v>149.55500000000001</v>
+      </c>
+      <c r="D58">
+        <v>1760.9269999999999</v>
+      </c>
+      <c r="E58">
+        <v>1011.816</v>
+      </c>
+      <c r="F58">
+        <v>688.12099999999998</v>
+      </c>
+      <c r="G58">
+        <v>3656.442</v>
+      </c>
+      <c r="H58">
+        <v>7876.8919999999998</v>
+      </c>
+      <c r="I58">
+        <v>1026.8630000000001</v>
+      </c>
+      <c r="J58">
+        <v>3671.0659999999998</v>
+      </c>
+      <c r="K58">
+        <v>4.6950000000000003</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>2069.817</v>
+      </c>
+      <c r="O58">
+        <v>6742.0420000000004</v>
+      </c>
+      <c r="P58">
+        <v>4538.6779999999999</v>
+      </c>
+      <c r="Q58">
+        <v>-52.177999999999997</v>
+      </c>
+      <c r="R58">
+        <v>43645</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>1134.8499999999999</v>
+      </c>
+      <c r="U58">
+        <v>257.94099999999997</v>
+      </c>
+      <c r="V58">
+        <v>136.928</v>
+      </c>
+      <c r="W58">
+        <v>-54.228000000000002</v>
+      </c>
+      <c r="X58">
+        <v>-135.928</v>
+      </c>
+      <c r="Y58">
+        <v>371.964</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>149.55500000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>43736</v>
+      </c>
+      <c r="B59" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59">
+        <v>185.09100000000001</v>
+      </c>
+      <c r="D59">
+        <v>1866.9670000000001</v>
+      </c>
+      <c r="E59">
+        <v>1033.9380000000001</v>
+      </c>
+      <c r="F59">
+        <v>726.45699999999999</v>
+      </c>
+      <c r="G59">
+        <v>3625.97</v>
+      </c>
+      <c r="H59">
+        <v>7773.2979999999998</v>
+      </c>
+      <c r="I59">
+        <v>997.06899999999996</v>
+      </c>
+      <c r="J59">
+        <v>3467.5909999999999</v>
+      </c>
+      <c r="K59">
+        <v>4.2750000000000004</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>2096.904</v>
+      </c>
+      <c r="O59">
+        <v>6543.0559999999996</v>
+      </c>
+      <c r="P59">
+        <v>4341.5169999999998</v>
+      </c>
+      <c r="Q59">
+        <v>60.103000000000002</v>
+      </c>
+      <c r="R59">
+        <v>43736</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>1230.242</v>
+      </c>
+      <c r="U59">
+        <v>317.024</v>
+      </c>
+      <c r="V59">
+        <v>302.06299999999999</v>
+      </c>
+      <c r="W59">
+        <v>-54.24</v>
+      </c>
+      <c r="X59">
+        <v>-221.39500000000001</v>
+      </c>
+      <c r="Y59">
+        <v>364.08300000000003</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>185.09100000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>43827</v>
+      </c>
+      <c r="B60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60">
+        <v>184.98599999999999</v>
+      </c>
+      <c r="D60">
+        <v>1751.0050000000001</v>
+      </c>
+      <c r="E60">
+        <v>815.21</v>
+      </c>
+      <c r="F60">
+        <v>725.29600000000005</v>
+      </c>
+      <c r="G60">
+        <v>3224.5650000000001</v>
+      </c>
+      <c r="H60">
+        <v>7353.9859999999999</v>
+      </c>
+      <c r="I60">
+        <v>959.00599999999997</v>
+      </c>
+      <c r="J60">
+        <v>3256.87</v>
+      </c>
+      <c r="K60">
+        <v>4.2439999999999998</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1771.4390000000001</v>
+      </c>
+      <c r="O60">
+        <v>6117.3909999999996</v>
+      </c>
+      <c r="P60">
+        <v>3896.4</v>
+      </c>
+      <c r="Q60">
+        <v>11.879</v>
+      </c>
+      <c r="R60">
+        <v>43827</v>
+      </c>
+      <c r="S60">
+        <v>63000</v>
+      </c>
+      <c r="T60">
+        <v>1236.595</v>
+      </c>
+      <c r="U60">
+        <v>328.87599999999998</v>
+      </c>
+      <c r="V60">
+        <v>558.73199999999997</v>
+      </c>
+      <c r="W60">
+        <v>-54.268999999999998</v>
+      </c>
+      <c r="X60">
+        <v>-538.39400000000001</v>
+      </c>
+      <c r="Y60">
+        <v>358.28100000000001</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>184.98599999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B61" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61">
+        <v>-7.8739999999999997</v>
+      </c>
+      <c r="D61">
+        <v>1316.462</v>
+      </c>
+      <c r="E61">
+        <v>725.09199999999998</v>
+      </c>
+      <c r="F61">
+        <v>495.54500000000002</v>
+      </c>
+      <c r="G61">
+        <v>3950.873</v>
+      </c>
+      <c r="H61">
+        <v>7943.259</v>
+      </c>
+      <c r="I61">
+        <v>925.41700000000003</v>
+      </c>
+      <c r="J61">
+        <v>4236.9549999999999</v>
+      </c>
+      <c r="K61">
+        <v>2.17</v>
+      </c>
+      <c r="L61">
+        <v>-139.261</v>
+      </c>
+      <c r="M61">
+        <v>-688</v>
+      </c>
+      <c r="N61">
+        <v>1789.068</v>
+      </c>
+      <c r="O61">
+        <v>7069.6880000000001</v>
+      </c>
+      <c r="P61">
+        <v>5012.0529999999999</v>
+      </c>
+      <c r="Q61">
+        <v>754.76</v>
+      </c>
+      <c r="R61">
+        <v>43918</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>873.57100000000003</v>
+      </c>
+      <c r="U61">
+        <v>1083.78</v>
+      </c>
+      <c r="V61">
+        <v>-83.215999999999994</v>
+      </c>
+      <c r="W61">
+        <v>-53.683</v>
+      </c>
+      <c r="X61">
+        <v>877.51400000000001</v>
+      </c>
+      <c r="Y61">
+        <v>358.84800000000001</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>-7.8739999999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B62" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62">
+        <v>161.18100000000001</v>
+      </c>
+      <c r="D62">
+        <v>1738.779</v>
+      </c>
+      <c r="E62">
+        <v>1196.826</v>
+      </c>
+      <c r="F62">
+        <v>659.54600000000005</v>
+      </c>
+      <c r="G62">
+        <v>4031.8049999999998</v>
+      </c>
+      <c r="H62">
+        <v>8112.96</v>
+      </c>
+      <c r="I62">
+        <v>1152.2729999999999</v>
+      </c>
+      <c r="J62">
+        <v>3985.6309999999999</v>
+      </c>
+      <c r="K62">
+        <v>8.8030000000000008</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>2002.248</v>
+      </c>
+      <c r="O62">
+        <v>7033.64</v>
+      </c>
+      <c r="P62">
+        <v>4629.9480000000003</v>
+      </c>
+      <c r="Q62">
+        <v>-401.56900000000002</v>
+      </c>
+      <c r="R62">
+        <v>44009</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>1079.32</v>
+      </c>
+      <c r="U62">
+        <v>683.11400000000003</v>
+      </c>
+      <c r="V62">
+        <v>65.423000000000002</v>
+      </c>
+      <c r="W62">
+        <v>-52.213000000000001</v>
+      </c>
+      <c r="X62">
+        <v>-462.19600000000003</v>
+      </c>
+      <c r="Y62">
+        <v>362.57</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>161.18100000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>44100</v>
+      </c>
+      <c r="B63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63">
+        <v>103.27800000000001</v>
+      </c>
+      <c r="D63">
+        <v>1808.2660000000001</v>
+      </c>
+      <c r="E63">
+        <v>984.57100000000003</v>
+      </c>
+      <c r="F63">
+        <v>664.34900000000005</v>
+      </c>
+      <c r="G63">
+        <v>4097.2209999999995</v>
+      </c>
+      <c r="H63">
+        <v>8159.6840000000002</v>
+      </c>
+      <c r="I63">
+        <v>1144.19</v>
+      </c>
+      <c r="J63">
+        <v>3972.212</v>
+      </c>
+      <c r="K63">
+        <v>5.2569999999999997</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>2022.7460000000001</v>
+      </c>
+      <c r="O63">
+        <v>7010.1509999999998</v>
+      </c>
+      <c r="P63">
+        <v>4481.7820000000002</v>
+      </c>
+      <c r="Q63">
+        <v>49.44</v>
+      </c>
+      <c r="R63">
+        <v>44100</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>1149.5329999999999</v>
+      </c>
+      <c r="U63">
+        <v>731.48099999999999</v>
+      </c>
+      <c r="V63">
+        <v>249.01499999999999</v>
+      </c>
+      <c r="W63">
+        <v>-52.235999999999997</v>
+      </c>
+      <c r="X63">
+        <v>-211.87700000000001</v>
+      </c>
+      <c r="Y63">
+        <v>347.60399999999998</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>103.27800000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
         <v>44198</v>
       </c>
-      <c r="B42" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42">
+      <c r="B64" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64">
         <v>-332.16399999999999</v>
       </c>
-      <c r="D42">
+      <c r="D64">
         <v>1800.8430000000001</v>
       </c>
-      <c r="E42">
+      <c r="E64">
         <v>831.86</v>
       </c>
-      <c r="F42">
+      <c r="F64">
         <v>735.27499999999998</v>
       </c>
-      <c r="G42">
+      <c r="G64">
         <v>3408.3870000000002</v>
       </c>
-      <c r="H42">
+      <c r="H64">
         <v>7698.8739999999998</v>
       </c>
-      <c r="I42">
+      <c r="I64">
         <v>948.51099999999997</v>
       </c>
-      <c r="J42">
+      <c r="J64">
         <v>3739.4340000000002</v>
       </c>
-      <c r="K42">
+      <c r="K64">
         <v>0.78400000000000003</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
         <v>2103.3679999999999</v>
       </c>
-      <c r="O42">
+      <c r="O64">
         <v>6884.9160000000002</v>
       </c>
-      <c r="P42">
+      <c r="P64">
         <v>4511.348</v>
       </c>
-      <c r="Q42">
+      <c r="Q64">
         <v>178.04900000000001</v>
       </c>
-      <c r="R42">
+      <c r="R64">
         <v>44198</v>
       </c>
-      <c r="S42">
+      <c r="S64">
         <v>56000</v>
       </c>
-      <c r="T42">
+      <c r="T64">
         <v>813.95799999999997</v>
       </c>
-      <c r="U42">
+      <c r="U64">
         <v>909.43700000000001</v>
       </c>
-      <c r="V42">
+      <c r="V64">
         <v>217.24700000000001</v>
       </c>
-      <c r="W42">
+      <c r="W64">
         <v>-52.253</v>
       </c>
-      <c r="X42">
+      <c r="X64">
         <v>-61.271999999999998</v>
       </c>
-      <c r="Y42">
+      <c r="Y64">
         <v>360.35199999999998</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
         <v>-332.16399999999999</v>
       </c>
     </row>
